--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_12_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>977584.6078694134</v>
+        <v>927463.2568227074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7489283.374365996</v>
+        <v>7489283.374366001</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7850396.814231891</v>
+        <v>7850396.814231892</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>87.15302860460203</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>240.4856028680846</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>240.4856028680846</v>
       </c>
       <c r="H11" t="n">
-        <v>240.4856028680846</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>124.6666904016068</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>10.59273468632259</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8180846963314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>227.8945024916396</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>13.26272426895595</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9051990453976</v>
       </c>
       <c r="H12" t="n">
         <v>99.6648814276693</v>
       </c>
       <c r="I12" t="n">
-        <v>48.01061538121267</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.28021670876377</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>147.0574639820156</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.5836237014351</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.90303877708692</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.274355045701768</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>131.2465964234568</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>206.0227719555176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>224.3276259013797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>129.9195754163223</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>240.4856028680846</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -1615,58 +1615,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>87.15302860460214</v>
+        <v>238.4872371779622</v>
       </c>
       <c r="F14" t="n">
-        <v>240.4856028680847</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>240.4856028680847</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>213.8180846963314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>240.4856028680847</v>
-      </c>
-      <c r="I14" t="n">
-        <v>124.6666904016068</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>26.88451781767934</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.6648814276693</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.01061538121267</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.28021670876377</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>148.1950469710155</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>240.4856028680847</v>
       </c>
       <c r="X15" t="n">
-        <v>89.49873613807536</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.274355045701768</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>131.2465964234568</v>
+        <v>69.63093348254658</v>
       </c>
       <c r="S16" t="n">
-        <v>206.0227719555176</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>224.3276259013797</v>
@@ -1824,7 +1824,7 @@
         <v>240.4856028680847</v>
       </c>
       <c r="V16" t="n">
-        <v>129.9195754163224</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>87.15302860460214</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>240.4856028680847</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>240.4856028680847</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>240.4856028680847</v>
+        <v>185.4642263632536</v>
       </c>
       <c r="I17" t="n">
         <v>124.6666904016068</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>10.59273468632259</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>158.2491885948638</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.8180846963314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.01815846341368</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9051990453976</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>99.6648814276693</v>
       </c>
       <c r="I18" t="n">
-        <v>48.01061538121267</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.28021670876377</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.5836237014351</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>31.77765371951956</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6.564633296774597</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
@@ -2016,13 +2016,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9522859302909</v>
+        <v>136.9433705671813</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.3005962469059</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>125.5712893119922</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>224.3276259013797</v>
       </c>
       <c r="U19" t="n">
-        <v>240.4856028680847</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>211.8197190062088</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>240.4856028680847</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>240.4856028680847</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>10.59273468632259</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>158.2491885948638</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>42.97779572502262</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>240.4856028680847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>148.1950469710155</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.5836237014351</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>185.0828938148079</v>
+        <v>185.421617777339</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>95.78817728869181</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9522859302909</v>
       </c>
       <c r="H22" t="n">
-        <v>153.3005962469059</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>125.5712893119922</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.2693444533188</v>
       </c>
       <c r="T22" t="n">
-        <v>224.3276259013797</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>412.7652091502412</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>316.7442354060778</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>124.6666904016068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.59273468632259</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>158.2491885948638</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7684301257844</v>
+        <v>168.4640523622459</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3105990762572</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>99.6648814276693</v>
       </c>
       <c r="I24" t="n">
-        <v>48.0106153812128</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9522859302909</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.3005962469059</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>100.8821407280648</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>108.2464548832158</v>
       </c>
       <c r="U25" t="n">
         <v>286.0011447728924</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>92.29737687034428</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>273.2522332132527</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>158.2491885948638</v>
       </c>
       <c r="T26" t="n">
-        <v>213.8180846963314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3105990762572</v>
@@ -2620,10 +2620,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>95.59073478642749</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9522859302909</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.3005962469059</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.57152284070386</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>206.0227719555176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.7463134260445</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>63.24857771149806</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>412.7652091502412</v>
@@ -2842,19 +2842,19 @@
         <v>10.59273468632259</v>
       </c>
       <c r="S29" t="n">
-        <v>158.2491885948638</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.8180846963314</v>
+        <v>191.5614793748016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3105990762572</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
@@ -2891,7 +2891,7 @@
         <v>99.6648814276693</v>
       </c>
       <c r="I30" t="n">
-        <v>48.0106153812128</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.28021670876377</v>
+        <v>25.28021670876383</v>
       </c>
       <c r="S30" t="n">
         <v>148.1950469710155</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.687584786230505</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>206.0227719555176</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0011447728924</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>108.2464548832158</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>10.59273468632259</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>158.2491885948638</v>
+        <v>64.19858183272852</v>
       </c>
       <c r="T32" t="n">
         <v>213.8180846963314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3105990762572</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>70.09084707532953</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835494</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>134.9051990453976</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97313800299729</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9522859302909</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.3005962469059</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>125.5712893119922</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.57152284070386</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>224.3276259013797</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>275.9288591514601</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>10.59273468632259</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>54.16819666986711</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.8956015303074</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9051990453976</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>81.96446979129685</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.01061538121267</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>25.28021670876377</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>114.1768885076021</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>193.8761623656656</v>
       </c>
       <c r="U36" t="n">
         <v>224.5836237014351</v>
@@ -3410,10 +3410,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3426,28 +3426,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>22.74162118304701</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9522859302909</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.3005962469059</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>125.5712893119922</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>22.57152284070386</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0011447728924</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>108.2464548832158</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>327.6767649858469</v>
       </c>
       <c r="H38" t="n">
-        <v>131.2651366900943</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.8180846963314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3596,13 +3596,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9051990453976</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>38.2427499849552</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>148.1950469710155</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>193.8761623656656</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>33.66752638519532</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>125.2947584372426</v>
       </c>
       <c r="G40" t="n">
         <v>166.9522859302909</v>
       </c>
       <c r="H40" t="n">
-        <v>24.32752518228786</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.274355045701768</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>131.2465964234568</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>206.0227719555176</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0011447728924</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>10.94291899212796</v>
+        <v>412.7652091502412</v>
       </c>
       <c r="H41" t="n">
-        <v>316.7442354060778</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>124.6666904016068</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>121.3199393674336</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>48.36448893954238</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3830,10 +3830,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>124.788375316327</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>148.1950469710155</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9522859302909</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>94.14643799378584</v>
+        <v>206.0227719555176</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>124.8190593218081</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.4492943824768</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>55.01183766328692</v>
       </c>
       <c r="G44" t="n">
-        <v>412.7652091502412</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>316.7442354060778</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>124.6666904016068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>158.2491885948638</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.8180846963314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4067,7 +4067,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>84.74545007424713</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>193.8761623656656</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.5836237014351</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4121,10 +4121,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>197.4334135803991</v>
       </c>
     </row>
     <row r="46">
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>116.9657088100896</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9522859302909</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.3005962469059</v>
+        <v>81.37464975385478</v>
       </c>
       <c r="I46" t="n">
         <v>125.5712893119922</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>206.0227719555176</v>
       </c>
       <c r="T46" t="n">
         <v>224.3276259013797</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>961.9424114723386</v>
+        <v>262.1535986012494</v>
       </c>
       <c r="C11" t="n">
-        <v>961.9424114723386</v>
+        <v>262.1535986012494</v>
       </c>
       <c r="D11" t="n">
-        <v>961.9424114723386</v>
+        <v>262.1535986012494</v>
       </c>
       <c r="E11" t="n">
-        <v>873.9090492454678</v>
+        <v>262.1535986012494</v>
       </c>
       <c r="F11" t="n">
-        <v>630.9942988736651</v>
+        <v>262.1535986012494</v>
       </c>
       <c r="G11" t="n">
-        <v>388.0795485018624</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="H11" t="n">
-        <v>145.1647981300597</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I11" t="n">
         <v>19.23884822944677</v>
       </c>
       <c r="J11" t="n">
-        <v>194.1611541935584</v>
+        <v>126.6709946500059</v>
       </c>
       <c r="K11" t="n">
-        <v>244.860822852027</v>
+        <v>177.3706633084746</v>
       </c>
       <c r="L11" t="n">
-        <v>343.7374628057211</v>
+        <v>276.2473032621687</v>
       </c>
       <c r="M11" t="n">
-        <v>484.6344777510985</v>
+        <v>514.3280501015724</v>
       </c>
       <c r="N11" t="n">
-        <v>632.3098168709481</v>
+        <v>752.4087969409762</v>
       </c>
       <c r="O11" t="n">
-        <v>870.3905637103519</v>
+        <v>878.8525523759859</v>
       </c>
       <c r="P11" t="n">
-        <v>944.6689077569797</v>
+        <v>953.1308964226138</v>
       </c>
       <c r="Q11" t="n">
         <v>961.9424114723386</v>
       </c>
       <c r="R11" t="n">
-        <v>961.9424114723386</v>
+        <v>951.2426794659522</v>
       </c>
       <c r="S11" t="n">
-        <v>961.9424114723386</v>
+        <v>951.2426794659522</v>
       </c>
       <c r="T11" t="n">
-        <v>961.9424114723386</v>
+        <v>735.2648161363245</v>
       </c>
       <c r="U11" t="n">
-        <v>961.9424114723386</v>
+        <v>735.2648161363245</v>
       </c>
       <c r="V11" t="n">
-        <v>961.9424114723386</v>
+        <v>735.2648161363245</v>
       </c>
       <c r="W11" t="n">
-        <v>961.9424114723386</v>
+        <v>735.2648161363245</v>
       </c>
       <c r="X11" t="n">
-        <v>961.9424114723386</v>
+        <v>735.2648161363245</v>
       </c>
       <c r="Y11" t="n">
-        <v>961.9424114723386</v>
+        <v>505.0683489730521</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>646.3569674396513</v>
+        <v>269.5750146355305</v>
       </c>
       <c r="C12" t="n">
-        <v>473.6038523614684</v>
+        <v>269.5750146355305</v>
       </c>
       <c r="D12" t="n">
-        <v>326.0155457204123</v>
+        <v>269.5750146355305</v>
       </c>
       <c r="E12" t="n">
-        <v>168.406016723267</v>
+        <v>269.5750146355305</v>
       </c>
       <c r="F12" t="n">
-        <v>168.406016723267</v>
+        <v>256.1783234547669</v>
       </c>
       <c r="G12" t="n">
-        <v>168.406016723267</v>
+        <v>119.9104456311329</v>
       </c>
       <c r="H12" t="n">
-        <v>67.73441932158079</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I12" t="n">
         <v>19.23884822944677</v>
@@ -5123,7 +5123,7 @@
         <v>131.2034205057906</v>
       </c>
       <c r="K12" t="n">
-        <v>176.8809131848838</v>
+        <v>242.27920957149</v>
       </c>
       <c r="L12" t="n">
         <v>348.8627130575178</v>
@@ -5144,28 +5144,28 @@
         <v>961.9424114723386</v>
       </c>
       <c r="R12" t="n">
-        <v>961.9424114723386</v>
+        <v>936.4068390392439</v>
       </c>
       <c r="S12" t="n">
-        <v>961.9424114723386</v>
+        <v>936.4068390392439</v>
       </c>
       <c r="T12" t="n">
-        <v>813.3995185612117</v>
+        <v>936.4068390392439</v>
       </c>
       <c r="U12" t="n">
-        <v>813.3995185612117</v>
+        <v>709.5546938862791</v>
       </c>
       <c r="V12" t="n">
-        <v>813.3995185612117</v>
+        <v>475.30345041188</v>
       </c>
       <c r="W12" t="n">
-        <v>813.3995185612117</v>
+        <v>475.30345041188</v>
       </c>
       <c r="X12" t="n">
-        <v>813.3995185612117</v>
+        <v>475.30345041188</v>
       </c>
       <c r="Y12" t="n">
-        <v>813.3995185612117</v>
+        <v>269.5750146355305</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.23884822944677</v>
+        <v>498.0694046684467</v>
       </c>
       <c r="C13" t="n">
-        <v>19.23884822944677</v>
+        <v>465.8441129744195</v>
       </c>
       <c r="D13" t="n">
-        <v>19.23884822944677</v>
+        <v>315.3334397274303</v>
       </c>
       <c r="E13" t="n">
-        <v>19.23884822944677</v>
+        <v>166.8742233908655</v>
       </c>
       <c r="F13" t="n">
         <v>19.23884822944677</v>
@@ -5220,31 +5220,31 @@
         <v>961.9424114723386</v>
       </c>
       <c r="Q13" t="n">
-        <v>960.6551841534479</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="R13" t="n">
-        <v>828.0828645337945</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="S13" t="n">
-        <v>619.9790544777161</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="T13" t="n">
-        <v>393.3854929611709</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="U13" t="n">
-        <v>262.1535986012494</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="V13" t="n">
-        <v>19.23884822944677</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="W13" t="n">
-        <v>19.23884822944677</v>
+        <v>719.0276611005359</v>
       </c>
       <c r="X13" t="n">
-        <v>19.23884822944677</v>
+        <v>719.0276611005359</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.23884822944677</v>
+        <v>498.0694046684467</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>961.9424114723388</v>
+        <v>503.0497977709083</v>
       </c>
       <c r="C14" t="n">
-        <v>961.9424114723388</v>
+        <v>503.0497977709083</v>
       </c>
       <c r="D14" t="n">
-        <v>961.9424114723388</v>
+        <v>503.0497977709083</v>
       </c>
       <c r="E14" t="n">
-        <v>873.9090492454679</v>
+        <v>262.1535986012495</v>
       </c>
       <c r="F14" t="n">
-        <v>630.9942988736652</v>
+        <v>262.1535986012495</v>
       </c>
       <c r="G14" t="n">
-        <v>388.0795485018625</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="H14" t="n">
-        <v>145.1647981300597</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I14" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J14" t="n">
         <v>194.1611541935584</v>
       </c>
       <c r="K14" t="n">
-        <v>267.7760710280289</v>
+        <v>244.860822852027</v>
       </c>
       <c r="L14" t="n">
-        <v>366.6527109817229</v>
+        <v>343.7374628057211</v>
       </c>
       <c r="M14" t="n">
-        <v>604.7334578211268</v>
+        <v>484.6344777510985</v>
       </c>
       <c r="N14" t="n">
-        <v>752.4087969409765</v>
+        <v>632.3098168709481</v>
       </c>
       <c r="O14" t="n">
-        <v>878.8525523759861</v>
+        <v>758.7535723059577</v>
       </c>
       <c r="P14" t="n">
-        <v>953.130896422614</v>
+        <v>833.0319163525855</v>
       </c>
       <c r="Q14" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723387</v>
       </c>
       <c r="R14" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723387</v>
       </c>
       <c r="S14" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723387</v>
       </c>
       <c r="T14" t="n">
-        <v>961.9424114723388</v>
+        <v>745.964548142711</v>
       </c>
       <c r="U14" t="n">
-        <v>961.9424114723388</v>
+        <v>745.964548142711</v>
       </c>
       <c r="V14" t="n">
-        <v>961.9424114723388</v>
+        <v>503.0497977709083</v>
       </c>
       <c r="W14" t="n">
-        <v>961.9424114723388</v>
+        <v>503.0497977709083</v>
       </c>
       <c r="X14" t="n">
-        <v>961.9424114723388</v>
+        <v>503.0497977709083</v>
       </c>
       <c r="Y14" t="n">
-        <v>961.9424114723388</v>
+        <v>503.0497977709083</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>498.7686607985951</v>
+        <v>376.7575709084914</v>
       </c>
       <c r="C15" t="n">
-        <v>326.0155457204123</v>
+        <v>204.0044558303086</v>
       </c>
       <c r="D15" t="n">
-        <v>326.0155457204123</v>
+        <v>204.0044558303086</v>
       </c>
       <c r="E15" t="n">
-        <v>168.406016723267</v>
+        <v>46.39492683316328</v>
       </c>
       <c r="F15" t="n">
-        <v>168.406016723267</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="G15" t="n">
-        <v>168.406016723267</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="H15" t="n">
-        <v>67.73441932158079</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I15" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J15" t="n">
-        <v>19.23884822944678</v>
+        <v>131.2034205057906</v>
       </c>
       <c r="K15" t="n">
-        <v>120.8135131409907</v>
+        <v>337.1090885938208</v>
       </c>
       <c r="L15" t="n">
-        <v>227.3970166270185</v>
+        <v>443.6925920798486</v>
       </c>
       <c r="M15" t="n">
-        <v>370.6478844440916</v>
+        <v>586.9434598969217</v>
       </c>
       <c r="N15" t="n">
-        <v>531.7386052688756</v>
+        <v>748.0341807217058</v>
       </c>
       <c r="O15" t="n">
-        <v>657.4408428779749</v>
+        <v>873.736418330805</v>
       </c>
       <c r="P15" t="n">
-        <v>739.478231077107</v>
+        <v>955.7738065299371</v>
       </c>
       <c r="Q15" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723387</v>
       </c>
       <c r="R15" t="n">
-        <v>961.9424114723388</v>
+        <v>936.406839039244</v>
       </c>
       <c r="S15" t="n">
-        <v>961.9424114723388</v>
+        <v>786.7148724018546</v>
       </c>
       <c r="T15" t="n">
-        <v>961.9424114723388</v>
+        <v>786.7148724018546</v>
       </c>
       <c r="U15" t="n">
-        <v>961.9424114723388</v>
+        <v>786.7148724018546</v>
       </c>
       <c r="V15" t="n">
-        <v>961.9424114723388</v>
+        <v>786.7148724018546</v>
       </c>
       <c r="W15" t="n">
-        <v>961.9424114723388</v>
+        <v>543.8001220300519</v>
       </c>
       <c r="X15" t="n">
-        <v>871.5396476965051</v>
+        <v>543.8001220300519</v>
       </c>
       <c r="Y15" t="n">
-        <v>665.8112119201555</v>
+        <v>543.8001220300519</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="C16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="D16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="E16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="F16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="G16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="H16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J16" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="K16" t="n">
-        <v>112.4207736477645</v>
+        <v>112.4207736477646</v>
       </c>
       <c r="L16" t="n">
-        <v>287.4651719055761</v>
+        <v>287.4651719055762</v>
       </c>
       <c r="M16" t="n">
-        <v>482.6178464551452</v>
+        <v>482.6178464551454</v>
       </c>
       <c r="N16" t="n">
-        <v>678.2714884864413</v>
+        <v>678.2714884864412</v>
       </c>
       <c r="O16" t="n">
-        <v>843.6526978065313</v>
+        <v>843.6526978065311</v>
       </c>
       <c r="P16" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723387</v>
       </c>
       <c r="Q16" t="n">
-        <v>960.6551841534481</v>
+        <v>961.9424114723387</v>
       </c>
       <c r="R16" t="n">
-        <v>828.0828645337947</v>
+        <v>891.6081352273421</v>
       </c>
       <c r="S16" t="n">
-        <v>619.9790544777163</v>
+        <v>891.6081352273421</v>
       </c>
       <c r="T16" t="n">
-        <v>393.3854929611712</v>
+        <v>665.014573710797</v>
       </c>
       <c r="U16" t="n">
-        <v>150.4707425893684</v>
+        <v>422.0998233389943</v>
       </c>
       <c r="V16" t="n">
-        <v>19.23884822944678</v>
+        <v>422.0998233389943</v>
       </c>
       <c r="W16" t="n">
-        <v>19.23884822944678</v>
+        <v>422.0998233389943</v>
       </c>
       <c r="X16" t="n">
-        <v>19.23884822944678</v>
+        <v>422.0998233389943</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.23884822944678</v>
+        <v>201.1415669069052</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>961.9424114723388</v>
+        <v>575.4171508889873</v>
       </c>
       <c r="C17" t="n">
-        <v>961.9424114723388</v>
+        <v>332.5024005171846</v>
       </c>
       <c r="D17" t="n">
-        <v>961.9424114723388</v>
+        <v>332.5024005171846</v>
       </c>
       <c r="E17" t="n">
-        <v>873.9090492454679</v>
+        <v>332.5024005171846</v>
       </c>
       <c r="F17" t="n">
-        <v>630.9942988736652</v>
+        <v>332.5024005171846</v>
       </c>
       <c r="G17" t="n">
-        <v>388.0795485018625</v>
+        <v>332.5024005171846</v>
       </c>
       <c r="H17" t="n">
         <v>145.1647981300597</v>
       </c>
       <c r="I17" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J17" t="n">
         <v>194.1611541935584</v>
       </c>
       <c r="K17" t="n">
-        <v>244.860822852027</v>
+        <v>364.9598029220551</v>
       </c>
       <c r="L17" t="n">
-        <v>343.7374628057211</v>
+        <v>463.8364428757491</v>
       </c>
       <c r="M17" t="n">
-        <v>484.6344777510985</v>
+        <v>604.7334578211265</v>
       </c>
       <c r="N17" t="n">
-        <v>632.3098168709481</v>
+        <v>752.4087969409762</v>
       </c>
       <c r="O17" t="n">
-        <v>758.7535723059577</v>
+        <v>878.8525523759859</v>
       </c>
       <c r="P17" t="n">
-        <v>833.0319163525855</v>
+        <v>953.1308964226138</v>
       </c>
       <c r="Q17" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="R17" t="n">
-        <v>961.9424114723388</v>
+        <v>951.2426794659522</v>
       </c>
       <c r="S17" t="n">
-        <v>961.9424114723388</v>
+        <v>791.395014218615</v>
       </c>
       <c r="T17" t="n">
-        <v>961.9424114723388</v>
+        <v>575.4171508889873</v>
       </c>
       <c r="U17" t="n">
-        <v>961.9424114723388</v>
+        <v>575.4171508889873</v>
       </c>
       <c r="V17" t="n">
-        <v>961.9424114723388</v>
+        <v>575.4171508889873</v>
       </c>
       <c r="W17" t="n">
-        <v>961.9424114723388</v>
+        <v>575.4171508889873</v>
       </c>
       <c r="X17" t="n">
-        <v>961.9424114723388</v>
+        <v>575.4171508889873</v>
       </c>
       <c r="Y17" t="n">
-        <v>961.9424114723388</v>
+        <v>575.4171508889873</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>927.5806352466684</v>
+        <v>267.4987522721891</v>
       </c>
       <c r="C18" t="n">
-        <v>754.8275201684855</v>
+        <v>267.4987522721891</v>
       </c>
       <c r="D18" t="n">
-        <v>607.2392135274293</v>
+        <v>119.9104456311329</v>
       </c>
       <c r="E18" t="n">
-        <v>449.6296845302841</v>
+        <v>119.9104456311329</v>
       </c>
       <c r="F18" t="n">
-        <v>304.6738945469009</v>
+        <v>119.9104456311329</v>
       </c>
       <c r="G18" t="n">
-        <v>168.406016723267</v>
+        <v>119.9104456311329</v>
       </c>
       <c r="H18" t="n">
-        <v>67.73441932158079</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I18" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J18" t="n">
-        <v>19.23884822944678</v>
+        <v>75.13602046189725</v>
       </c>
       <c r="K18" t="n">
-        <v>242.2792095714901</v>
+        <v>120.8135131409904</v>
       </c>
       <c r="L18" t="n">
-        <v>348.862713057518</v>
+        <v>227.3970166270183</v>
       </c>
       <c r="M18" t="n">
-        <v>586.9434598969218</v>
+        <v>370.6478844440913</v>
       </c>
       <c r="N18" t="n">
-        <v>748.0341807217059</v>
+        <v>531.7386052688754</v>
       </c>
       <c r="O18" t="n">
-        <v>873.7364183308051</v>
+        <v>657.4408428779747</v>
       </c>
       <c r="P18" t="n">
-        <v>955.7738065299372</v>
+        <v>739.4782310771068</v>
       </c>
       <c r="Q18" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="R18" t="n">
-        <v>961.9424114723388</v>
+        <v>936.4068390392439</v>
       </c>
       <c r="S18" t="n">
-        <v>961.9424114723388</v>
+        <v>936.4068390392439</v>
       </c>
       <c r="T18" t="n">
-        <v>961.9424114723388</v>
+        <v>936.4068390392439</v>
       </c>
       <c r="U18" t="n">
-        <v>961.9424114723388</v>
+        <v>709.5546938862791</v>
       </c>
       <c r="V18" t="n">
-        <v>961.9424114723388</v>
+        <v>709.5546938862791</v>
       </c>
       <c r="W18" t="n">
-        <v>961.9424114723388</v>
+        <v>466.6399435144764</v>
       </c>
       <c r="X18" t="n">
-        <v>961.9424114723388</v>
+        <v>434.5413033937496</v>
       </c>
       <c r="Y18" t="n">
-        <v>961.9424114723388</v>
+        <v>434.5413033937496</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>490.6030551083045</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="C19" t="n">
-        <v>490.6030551083045</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="D19" t="n">
-        <v>483.9721123842897</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="E19" t="n">
-        <v>335.512896047725</v>
+        <v>586.8896336192286</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8775208863063</v>
+        <v>439.2542584578099</v>
       </c>
       <c r="G19" t="n">
-        <v>19.23884822944678</v>
+        <v>300.9276215212631</v>
       </c>
       <c r="H19" t="n">
-        <v>19.23884822944678</v>
+        <v>146.0785344031763</v>
       </c>
       <c r="I19" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J19" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="K19" t="n">
-        <v>112.4207736477646</v>
+        <v>112.4207736477645</v>
       </c>
       <c r="L19" t="n">
-        <v>287.4651719055762</v>
+        <v>287.4651719055761</v>
       </c>
       <c r="M19" t="n">
-        <v>482.6178464551454</v>
+        <v>482.6178464551451</v>
       </c>
       <c r="N19" t="n">
-        <v>678.2714884864413</v>
+        <v>678.2714884864411</v>
       </c>
       <c r="O19" t="n">
-        <v>843.6526978065313</v>
+        <v>843.652697806531</v>
       </c>
       <c r="P19" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="Q19" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="R19" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="S19" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="T19" t="n">
-        <v>961.9424114723388</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="U19" t="n">
-        <v>719.0276611005361</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="V19" t="n">
-        <v>719.0276611005361</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="W19" t="n">
-        <v>719.0276611005361</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="X19" t="n">
-        <v>490.6030551083045</v>
+        <v>735.3488499557934</v>
       </c>
       <c r="Y19" t="n">
-        <v>490.6030551083045</v>
+        <v>735.3488499557934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>505.0683489730523</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="C20" t="n">
-        <v>505.0683489730523</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="D20" t="n">
-        <v>505.0683489730523</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="E20" t="n">
-        <v>505.0683489730523</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="F20" t="n">
-        <v>505.0683489730523</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="G20" t="n">
-        <v>262.1535986012495</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="H20" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I20" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J20" t="n">
-        <v>20.05927921239123</v>
+        <v>194.1611541935584</v>
       </c>
       <c r="K20" t="n">
-        <v>258.1400260517951</v>
+        <v>364.9598029220551</v>
       </c>
       <c r="L20" t="n">
-        <v>357.0166660054891</v>
+        <v>463.8364428757491</v>
       </c>
       <c r="M20" t="n">
-        <v>497.9136809508665</v>
+        <v>604.7334578211265</v>
       </c>
       <c r="N20" t="n">
-        <v>735.9944277902704</v>
+        <v>752.4087969409762</v>
       </c>
       <c r="O20" t="n">
-        <v>878.8525523759861</v>
+        <v>878.8525523759859</v>
       </c>
       <c r="P20" t="n">
-        <v>953.130896422614</v>
+        <v>953.1308964226138</v>
       </c>
       <c r="Q20" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="R20" t="n">
-        <v>951.2426794659524</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="S20" t="n">
-        <v>791.3950142186152</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="T20" t="n">
-        <v>747.983099344855</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="U20" t="n">
-        <v>747.983099344855</v>
+        <v>719.0276611005359</v>
       </c>
       <c r="V20" t="n">
-        <v>747.983099344855</v>
+        <v>476.1129107287331</v>
       </c>
       <c r="W20" t="n">
-        <v>747.983099344855</v>
+        <v>233.1981603569305</v>
       </c>
       <c r="X20" t="n">
-        <v>747.983099344855</v>
+        <v>233.1981603569305</v>
       </c>
       <c r="Y20" t="n">
-        <v>505.0683489730523</v>
+        <v>233.1981603569305</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>164.1946382128299</v>
+        <v>166.8271548705029</v>
       </c>
       <c r="C21" t="n">
-        <v>164.1946382128299</v>
+        <v>166.8271548705029</v>
       </c>
       <c r="D21" t="n">
-        <v>164.1946382128299</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="E21" t="n">
-        <v>164.1946382128299</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="F21" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="G21" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="H21" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I21" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J21" t="n">
-        <v>131.2034205057906</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="K21" t="n">
-        <v>337.1090885938209</v>
+        <v>257.3195950688506</v>
       </c>
       <c r="L21" t="n">
-        <v>443.6925920798487</v>
+        <v>363.9030985548784</v>
       </c>
       <c r="M21" t="n">
-        <v>586.9434598969218</v>
+        <v>507.1539663719515</v>
       </c>
       <c r="N21" t="n">
-        <v>748.0341807217059</v>
+        <v>668.2446871967355</v>
       </c>
       <c r="O21" t="n">
-        <v>873.7364183308051</v>
+        <v>873.7364183308049</v>
       </c>
       <c r="P21" t="n">
-        <v>955.7738065299372</v>
+        <v>955.773806529937</v>
       </c>
       <c r="Q21" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="R21" t="n">
-        <v>961.9424114723388</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="S21" t="n">
-        <v>812.2504448349493</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="T21" t="n">
-        <v>812.2504448349493</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="U21" t="n">
-        <v>585.3982996819846</v>
+        <v>961.9424114723386</v>
       </c>
       <c r="V21" t="n">
-        <v>351.1470562075854</v>
+        <v>727.6911679979394</v>
       </c>
       <c r="W21" t="n">
-        <v>164.1946382128299</v>
+        <v>540.3966045864859</v>
       </c>
       <c r="X21" t="n">
-        <v>164.1946382128299</v>
+        <v>333.8697059920634</v>
       </c>
       <c r="Y21" t="n">
-        <v>164.1946382128299</v>
+        <v>333.8697059920634</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>735.3488499557934</v>
+        <v>187.8775208863063</v>
       </c>
       <c r="C22" t="n">
-        <v>566.3220288131648</v>
+        <v>187.8775208863063</v>
       </c>
       <c r="D22" t="n">
-        <v>566.3220288131648</v>
+        <v>187.8775208863063</v>
       </c>
       <c r="E22" t="n">
-        <v>566.3220288131648</v>
+        <v>187.8775208863063</v>
       </c>
       <c r="F22" t="n">
-        <v>469.5662941781226</v>
+        <v>187.8775208863063</v>
       </c>
       <c r="G22" t="n">
-        <v>300.9276215212631</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="H22" t="n">
-        <v>146.0785344031763</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="I22" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="J22" t="n">
-        <v>19.23884822944678</v>
+        <v>19.23884822944677</v>
       </c>
       <c r="K22" t="n">
         <v>112.4207736477645</v>
@@ -5937,25 +5937,25 @@
         <v>961.9424114723386</v>
       </c>
       <c r="S22" t="n">
-        <v>961.9424114723386</v>
+        <v>855.6097403073701</v>
       </c>
       <c r="T22" t="n">
-        <v>735.3488499557934</v>
+        <v>855.6097403073701</v>
       </c>
       <c r="U22" t="n">
-        <v>735.3488499557934</v>
+        <v>612.6949899355674</v>
       </c>
       <c r="V22" t="n">
-        <v>735.3488499557934</v>
+        <v>612.6949899355674</v>
       </c>
       <c r="W22" t="n">
-        <v>735.3488499557934</v>
+        <v>369.7802395637647</v>
       </c>
       <c r="X22" t="n">
-        <v>735.3488499557934</v>
+        <v>369.7802395637647</v>
       </c>
       <c r="Y22" t="n">
-        <v>735.3488499557934</v>
+        <v>369.7802395637647</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1560.989288849772</v>
+        <v>589.8302111635999</v>
       </c>
       <c r="C23" t="n">
-        <v>1560.989288849772</v>
+        <v>589.8302111635999</v>
       </c>
       <c r="D23" t="n">
-        <v>1200.782488087552</v>
+        <v>589.8302111635999</v>
       </c>
       <c r="E23" t="n">
-        <v>1200.782488087552</v>
+        <v>589.8302111635999</v>
       </c>
       <c r="F23" t="n">
-        <v>789.3745451779143</v>
+        <v>178.4222682539626</v>
       </c>
       <c r="G23" t="n">
-        <v>372.439990480701</v>
+        <v>178.4222682539626</v>
       </c>
       <c r="H23" t="n">
-        <v>52.4963183533497</v>
+        <v>178.4222682539626</v>
       </c>
       <c r="I23" t="n">
         <v>52.4963183533497</v>
       </c>
       <c r="J23" t="n">
-        <v>53.31674933629415</v>
+        <v>227.4186243174613</v>
       </c>
       <c r="K23" t="n">
-        <v>437.7565347780341</v>
+        <v>611.8584097592012</v>
       </c>
       <c r="L23" t="n">
-        <v>536.6331747317281</v>
+        <v>1140.759036214039</v>
       </c>
       <c r="M23" t="n">
-        <v>1140.349323761326</v>
+        <v>1325.611633071354</v>
       </c>
       <c r="N23" t="n">
-        <v>1738.317056255754</v>
+        <v>1473.286972191204</v>
       </c>
       <c r="O23" t="n">
-        <v>2256.832678318887</v>
+        <v>1991.802594254336</v>
       </c>
       <c r="P23" t="n">
-        <v>2616.00440261776</v>
+        <v>2397.404888234322</v>
       </c>
       <c r="Q23" t="n">
         <v>2624.815917667485</v>
       </c>
       <c r="R23" t="n">
-        <v>2614.116185661098</v>
+        <v>2624.815917667485</v>
       </c>
       <c r="S23" t="n">
-        <v>2454.268520413761</v>
+        <v>2464.968252420148</v>
       </c>
       <c r="T23" t="n">
-        <v>2323.189298064484</v>
+        <v>2294.802542963334</v>
       </c>
       <c r="U23" t="n">
-        <v>2323.189298064484</v>
+        <v>2040.953452987316</v>
       </c>
       <c r="V23" t="n">
-        <v>2323.189298064484</v>
+        <v>1709.10171407568</v>
       </c>
       <c r="W23" t="n">
-        <v>2323.189298064484</v>
+        <v>1355.030888822595</v>
       </c>
       <c r="X23" t="n">
-        <v>1948.581622174414</v>
+        <v>980.423212932525</v>
       </c>
       <c r="Y23" t="n">
-        <v>1948.581622174414</v>
+        <v>589.8302111635999</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>960.8381053705713</v>
+        <v>960.8381053705712</v>
       </c>
       <c r="C24" t="n">
-        <v>788.0849902923885</v>
+        <v>788.0849902923884</v>
       </c>
       <c r="D24" t="n">
-        <v>640.4966836513324</v>
+        <v>640.4966836513322</v>
       </c>
       <c r="E24" t="n">
-        <v>482.8871546541872</v>
+        <v>482.8871546541868</v>
       </c>
       <c r="F24" t="n">
-        <v>337.931364670804</v>
+        <v>337.9313646708038</v>
       </c>
       <c r="G24" t="n">
-        <v>201.66348684717</v>
+        <v>201.6634868471697</v>
       </c>
       <c r="H24" t="n">
-        <v>100.9918894454838</v>
+        <v>100.9918894454837</v>
       </c>
       <c r="I24" t="n">
         <v>52.4963183533497</v>
       </c>
       <c r="J24" t="n">
-        <v>52.4963183533497</v>
+        <v>164.4608906296935</v>
       </c>
       <c r="K24" t="n">
-        <v>244.6035789022863</v>
+        <v>482.4317913369376</v>
       </c>
       <c r="L24" t="n">
-        <v>733.0043019127557</v>
+        <v>970.8325143474071</v>
       </c>
       <c r="M24" t="n">
-        <v>1355.745103366829</v>
+        <v>1300.111480120238</v>
       </c>
       <c r="N24" t="n">
-        <v>2005.387042989531</v>
+        <v>1461.202200945022</v>
       </c>
       <c r="O24" t="n">
-        <v>2536.609924525951</v>
+        <v>1992.425082481442</v>
       </c>
       <c r="P24" t="n">
-        <v>2618.647312725083</v>
+        <v>2402.351737272253</v>
       </c>
       <c r="Q24" t="n">
         <v>2624.815917667485</v>
@@ -6113,7 +6113,7 @@
         <v>1333.609092268481</v>
       </c>
       <c r="Y24" t="n">
-        <v>1127.880656492132</v>
+        <v>1127.880656492131</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2107.50126645011</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="C25" t="n">
-        <v>2107.50126645011</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="D25" t="n">
-        <v>2107.50126645011</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="E25" t="n">
-        <v>2107.50126645011</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="F25" t="n">
-        <v>2107.50126645011</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="G25" t="n">
-        <v>1938.86259379325</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="H25" t="n">
-        <v>1784.013506675163</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="I25" t="n">
-        <v>1682.112354424593</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="J25" t="n">
-        <v>1682.112354424593</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="K25" t="n">
-        <v>1775.294279842911</v>
+        <v>145.6782437716674</v>
       </c>
       <c r="L25" t="n">
-        <v>1950.338678100722</v>
+        <v>320.7226420294791</v>
       </c>
       <c r="M25" t="n">
-        <v>2145.491352650291</v>
+        <v>515.8753165790482</v>
       </c>
       <c r="N25" t="n">
-        <v>2341.144994681587</v>
+        <v>711.5289586103441</v>
       </c>
       <c r="O25" t="n">
-        <v>2506.526204001677</v>
+        <v>876.910167930434</v>
       </c>
       <c r="P25" t="n">
-        <v>2624.815917667485</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="Q25" t="n">
-        <v>2624.815917667485</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="R25" t="n">
-        <v>2624.815917667485</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="S25" t="n">
-        <v>2624.815917667485</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="T25" t="n">
-        <v>2624.815917667485</v>
+        <v>885.8600281788518</v>
       </c>
       <c r="U25" t="n">
-        <v>2335.925872442341</v>
+        <v>596.969982953708</v>
       </c>
       <c r="V25" t="n">
-        <v>2335.925872442341</v>
+        <v>341.478719249729</v>
       </c>
       <c r="W25" t="n">
-        <v>2335.925872442341</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="X25" t="n">
-        <v>2107.50126645011</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="Y25" t="n">
-        <v>2107.50126645011</v>
+        <v>52.4963183533497</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145.7259919597581</v>
+        <v>1126.904532948381</v>
       </c>
       <c r="C26" t="n">
-        <v>52.4963183533497</v>
+        <v>1126.904532948381</v>
       </c>
       <c r="D26" t="n">
-        <v>52.4963183533497</v>
+        <v>850.8921761673178</v>
       </c>
       <c r="E26" t="n">
-        <v>52.4963183533497</v>
+        <v>463.9042612629869</v>
       </c>
       <c r="F26" t="n">
         <v>52.4963183533497</v>
@@ -6226,25 +6226,25 @@
         <v>52.4963183533497</v>
       </c>
       <c r="J26" t="n">
-        <v>53.31674933629415</v>
+        <v>227.4186243174613</v>
       </c>
       <c r="K26" t="n">
-        <v>437.7565347780341</v>
+        <v>611.8584097592012</v>
       </c>
       <c r="L26" t="n">
-        <v>966.6571612328719</v>
+        <v>734.4222247513976</v>
       </c>
       <c r="M26" t="n">
-        <v>1570.37331026247</v>
+        <v>875.3192396967751</v>
       </c>
       <c r="N26" t="n">
-        <v>2168.341042756898</v>
+        <v>1473.286972191204</v>
       </c>
       <c r="O26" t="n">
-        <v>2541.726058571132</v>
+        <v>1991.802594254336</v>
       </c>
       <c r="P26" t="n">
-        <v>2616.00440261776</v>
+        <v>2397.404888234322</v>
       </c>
       <c r="Q26" t="n">
         <v>2624.815917667485</v>
@@ -6256,22 +6256,22 @@
         <v>2454.268520413761</v>
       </c>
       <c r="T26" t="n">
-        <v>2238.290657084133</v>
+        <v>2454.268520413761</v>
       </c>
       <c r="U26" t="n">
-        <v>1984.441567108116</v>
+        <v>2200.419430437744</v>
       </c>
       <c r="V26" t="n">
-        <v>1652.58982819648</v>
+        <v>1868.567691526108</v>
       </c>
       <c r="W26" t="n">
-        <v>1298.519002943395</v>
+        <v>1514.496866273023</v>
       </c>
       <c r="X26" t="n">
-        <v>923.9113270533246</v>
+        <v>1514.496866273023</v>
       </c>
       <c r="Y26" t="n">
-        <v>533.3183252843995</v>
+        <v>1514.496866273023</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>960.8381053705712</v>
+        <v>960.8381053705714</v>
       </c>
       <c r="C27" t="n">
-        <v>788.0849902923883</v>
+        <v>788.0849902923885</v>
       </c>
       <c r="D27" t="n">
-        <v>640.4966836513322</v>
+        <v>640.4966836513323</v>
       </c>
       <c r="E27" t="n">
-        <v>482.8871546541869</v>
+        <v>482.887154654187</v>
       </c>
       <c r="F27" t="n">
-        <v>337.9313646708038</v>
+        <v>337.9313646708039</v>
       </c>
       <c r="G27" t="n">
-        <v>201.6634868471697</v>
+        <v>201.6634868471699</v>
       </c>
       <c r="H27" t="n">
         <v>100.9918894454837</v>
@@ -6305,22 +6305,22 @@
         <v>52.4963183533497</v>
       </c>
       <c r="J27" t="n">
-        <v>52.4963183533497</v>
+        <v>87.29463040128138</v>
       </c>
       <c r="K27" t="n">
-        <v>370.4672190605938</v>
+        <v>405.2655311085255</v>
       </c>
       <c r="L27" t="n">
-        <v>858.8679420710632</v>
+        <v>893.666254118995</v>
       </c>
       <c r="M27" t="n">
-        <v>1481.608743525136</v>
+        <v>1516.407055573068</v>
       </c>
       <c r="N27" t="n">
-        <v>2005.387042989531</v>
+        <v>1677.497776397852</v>
       </c>
       <c r="O27" t="n">
-        <v>2536.609924525951</v>
+        <v>2208.720657934272</v>
       </c>
       <c r="P27" t="n">
         <v>2618.647312725083</v>
@@ -6332,25 +6332,25 @@
         <v>2599.28034523439</v>
       </c>
       <c r="S27" t="n">
-        <v>2449.588378597</v>
+        <v>2449.588378597001</v>
       </c>
       <c r="T27" t="n">
-        <v>2253.753871156934</v>
+        <v>2253.753871156935</v>
       </c>
       <c r="U27" t="n">
-        <v>2026.901726003969</v>
+        <v>2026.90172600397</v>
       </c>
       <c r="V27" t="n">
-        <v>1792.65048252957</v>
+        <v>1792.650482529571</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.135990862903</v>
+        <v>1540.135990862904</v>
       </c>
       <c r="X27" t="n">
         <v>1333.609092268481</v>
       </c>
       <c r="Y27" t="n">
-        <v>1127.880656492131</v>
+        <v>1127.880656492132</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>787.0960715401632</v>
+        <v>357.8560787184257</v>
       </c>
       <c r="C28" t="n">
-        <v>690.539773776095</v>
+        <v>357.8560787184257</v>
       </c>
       <c r="D28" t="n">
-        <v>540.0291005291057</v>
+        <v>207.3454054714364</v>
       </c>
       <c r="E28" t="n">
-        <v>391.5698841925408</v>
+        <v>207.3454054714364</v>
       </c>
       <c r="F28" t="n">
-        <v>243.9345090311222</v>
+        <v>207.3454054714364</v>
       </c>
       <c r="G28" t="n">
-        <v>75.29583637426269</v>
+        <v>207.3454054714364</v>
       </c>
       <c r="H28" t="n">
-        <v>75.29583637426269</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="I28" t="n">
-        <v>75.29583637426269</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="J28" t="n">
         <v>52.4963183533497</v>
@@ -6411,25 +6411,25 @@
         <v>995.1998815962415</v>
       </c>
       <c r="S28" t="n">
-        <v>787.0960715401632</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="T28" t="n">
-        <v>787.0960715401632</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="U28" t="n">
-        <v>787.0960715401632</v>
+        <v>768.1834033881157</v>
       </c>
       <c r="V28" t="n">
-        <v>787.0960715401632</v>
+        <v>768.1834033881157</v>
       </c>
       <c r="W28" t="n">
-        <v>787.0960715401632</v>
+        <v>768.1834033881157</v>
       </c>
       <c r="X28" t="n">
-        <v>787.0960715401632</v>
+        <v>539.7587973958841</v>
       </c>
       <c r="Y28" t="n">
-        <v>787.0960715401632</v>
+        <v>539.7587973958841</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>469.4308730505631</v>
+        <v>1267.826730864531</v>
       </c>
       <c r="C29" t="n">
-        <v>469.4308730505631</v>
+        <v>1267.826730864531</v>
       </c>
       <c r="D29" t="n">
-        <v>469.4308730505631</v>
+        <v>1267.826730864531</v>
       </c>
       <c r="E29" t="n">
-        <v>469.4308730505631</v>
+        <v>880.8388159602003</v>
       </c>
       <c r="F29" t="n">
         <v>469.4308730505631</v>
@@ -6463,25 +6463,25 @@
         <v>52.4963183533497</v>
       </c>
       <c r="J29" t="n">
-        <v>53.31674933629415</v>
+        <v>227.4186243174613</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0164179947628</v>
+        <v>611.8584097592012</v>
       </c>
       <c r="L29" t="n">
-        <v>632.9170444496006</v>
+        <v>1140.759036214039</v>
       </c>
       <c r="M29" t="n">
-        <v>1236.633193479198</v>
+        <v>1281.656051159416</v>
       </c>
       <c r="N29" t="n">
-        <v>1834.600925973627</v>
+        <v>1473.286972191204</v>
       </c>
       <c r="O29" t="n">
-        <v>2353.116548036759</v>
+        <v>1991.802594254336</v>
       </c>
       <c r="P29" t="n">
-        <v>2616.00440261776</v>
+        <v>2397.404888234322</v>
       </c>
       <c r="Q29" t="n">
         <v>2624.815917667485</v>
@@ -6490,25 +6490,25 @@
         <v>2614.116185661098</v>
       </c>
       <c r="S29" t="n">
-        <v>2454.268520413761</v>
+        <v>2614.116185661098</v>
       </c>
       <c r="T29" t="n">
-        <v>2238.290657084133</v>
+        <v>2420.619741848167</v>
       </c>
       <c r="U29" t="n">
-        <v>1984.441567108116</v>
+        <v>2420.619741848167</v>
       </c>
       <c r="V29" t="n">
-        <v>1652.58982819648</v>
+        <v>2420.619741848167</v>
       </c>
       <c r="W29" t="n">
-        <v>1298.519002943395</v>
+        <v>2420.619741848167</v>
       </c>
       <c r="X29" t="n">
-        <v>923.9113270533246</v>
+        <v>2046.012065958098</v>
       </c>
       <c r="Y29" t="n">
-        <v>533.3183252843995</v>
+        <v>1655.419064189173</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>960.8381053705713</v>
+        <v>960.8381053705714</v>
       </c>
       <c r="C30" t="n">
         <v>788.0849902923885</v>
       </c>
       <c r="D30" t="n">
-        <v>640.4966836513324</v>
+        <v>640.4966836513323</v>
       </c>
       <c r="E30" t="n">
-        <v>482.8871546541872</v>
+        <v>482.887154654187</v>
       </c>
       <c r="F30" t="n">
-        <v>337.931364670804</v>
+        <v>337.9313646708039</v>
       </c>
       <c r="G30" t="n">
-        <v>201.66348684717</v>
+        <v>201.6634868471699</v>
       </c>
       <c r="H30" t="n">
-        <v>100.9918894454838</v>
+        <v>100.9918894454837</v>
       </c>
       <c r="I30" t="n">
         <v>52.4963183533497</v>
@@ -6545,22 +6545,22 @@
         <v>52.4963183533497</v>
       </c>
       <c r="K30" t="n">
-        <v>98.17381103244287</v>
+        <v>370.4672190605938</v>
       </c>
       <c r="L30" t="n">
-        <v>405.1150353210766</v>
+        <v>477.0507225466217</v>
       </c>
       <c r="M30" t="n">
-        <v>1027.85583677515</v>
+        <v>1099.791524000695</v>
       </c>
       <c r="N30" t="n">
-        <v>1677.497776397852</v>
+        <v>1461.202200945022</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.720657934272</v>
+        <v>1992.425082481442</v>
       </c>
       <c r="P30" t="n">
-        <v>2618.647312725083</v>
+        <v>2402.351737272253</v>
       </c>
       <c r="Q30" t="n">
         <v>2624.815917667485</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>376.7687468704731</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="C31" t="n">
-        <v>207.7419257278445</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="D31" t="n">
-        <v>57.23125248085526</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="E31" t="n">
         <v>52.4963183533497</v>
@@ -6648,25 +6648,25 @@
         <v>995.1998815962415</v>
       </c>
       <c r="S31" t="n">
-        <v>787.0960715401632</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="T31" t="n">
-        <v>787.0960715401632</v>
+        <v>995.1998815962415</v>
       </c>
       <c r="U31" t="n">
-        <v>787.0960715401632</v>
+        <v>706.3098363710977</v>
       </c>
       <c r="V31" t="n">
-        <v>787.0960715401632</v>
+        <v>450.8185726671188</v>
       </c>
       <c r="W31" t="n">
-        <v>787.0960715401632</v>
+        <v>161.8361717707394</v>
       </c>
       <c r="X31" t="n">
-        <v>558.6714655479316</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="Y31" t="n">
-        <v>558.6714655479316</v>
+        <v>52.4963183533497</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>52.4963183533497</v>
       </c>
       <c r="J32" t="n">
-        <v>53.31674933629415</v>
+        <v>227.4186243174613</v>
       </c>
       <c r="K32" t="n">
-        <v>391.3259650969213</v>
+        <v>611.8584097592012</v>
       </c>
       <c r="L32" t="n">
-        <v>490.2026050506154</v>
+        <v>1140.759036214039</v>
       </c>
       <c r="M32" t="n">
-        <v>1093.918754080213</v>
+        <v>1544.211147454792</v>
       </c>
       <c r="N32" t="n">
         <v>1691.886486574642</v>
@@ -6724,28 +6724,28 @@
         <v>2624.815917667485</v>
       </c>
       <c r="R32" t="n">
-        <v>2614.116185661098</v>
+        <v>2624.815917667485</v>
       </c>
       <c r="S32" t="n">
-        <v>2454.268520413761</v>
+        <v>2559.968865311193</v>
       </c>
       <c r="T32" t="n">
-        <v>2238.290657084133</v>
+        <v>2343.991001981566</v>
       </c>
       <c r="U32" t="n">
-        <v>1984.441567108116</v>
+        <v>2343.991001981566</v>
       </c>
       <c r="V32" t="n">
-        <v>1652.58982819648</v>
+        <v>2343.991001981566</v>
       </c>
       <c r="W32" t="n">
-        <v>1581.790992766854</v>
+        <v>2343.991001981566</v>
       </c>
       <c r="X32" t="n">
-        <v>1581.790992766854</v>
+        <v>1969.383326091496</v>
       </c>
       <c r="Y32" t="n">
-        <v>1581.790992766854</v>
+        <v>1969.383326091496</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>960.8381053705713</v>
+        <v>960.8381053705712</v>
       </c>
       <c r="C33" t="n">
-        <v>788.0849902923885</v>
+        <v>788.0849902923884</v>
       </c>
       <c r="D33" t="n">
-        <v>640.4966836513324</v>
+        <v>640.4966836513322</v>
       </c>
       <c r="E33" t="n">
-        <v>482.8871546541872</v>
+        <v>482.8871546541868</v>
       </c>
       <c r="F33" t="n">
-        <v>337.9313646708039</v>
+        <v>337.9313646708038</v>
       </c>
       <c r="G33" t="n">
-        <v>201.6634868471699</v>
+        <v>201.6634868471697</v>
       </c>
       <c r="H33" t="n">
         <v>100.9918894454837</v>
@@ -6788,13 +6788,13 @@
         <v>586.5745340429123</v>
       </c>
       <c r="M33" t="n">
-        <v>1027.85583677515</v>
+        <v>1209.315335496985</v>
       </c>
       <c r="N33" t="n">
-        <v>1677.497776397852</v>
+        <v>1858.957275119688</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.720657934272</v>
+        <v>2390.180156656108</v>
       </c>
       <c r="P33" t="n">
         <v>2618.647312725083</v>
@@ -6824,7 +6824,7 @@
         <v>1333.609092268481</v>
       </c>
       <c r="Y33" t="n">
-        <v>1127.880656492132</v>
+        <v>1127.880656492131</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.2416251641524</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="C34" t="n">
-        <v>774.2416251641524</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="D34" t="n">
-        <v>774.2416251641524</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="E34" t="n">
-        <v>673.2586574843572</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="F34" t="n">
-        <v>525.6232823229385</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="G34" t="n">
-        <v>356.984609666079</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="H34" t="n">
-        <v>202.1355225479922</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="I34" t="n">
-        <v>75.29583637426269</v>
+        <v>52.4963183533497</v>
       </c>
       <c r="J34" t="n">
         <v>52.4963183533497</v>
@@ -6888,22 +6888,22 @@
         <v>995.1998815962415</v>
       </c>
       <c r="T34" t="n">
-        <v>995.1998815962415</v>
+        <v>768.6063200796964</v>
       </c>
       <c r="U34" t="n">
-        <v>995.1998815962415</v>
+        <v>768.6063200796964</v>
       </c>
       <c r="V34" t="n">
-        <v>995.1998815962415</v>
+        <v>513.1150563757174</v>
       </c>
       <c r="W34" t="n">
-        <v>995.1998815962415</v>
+        <v>234.3990370308081</v>
       </c>
       <c r="X34" t="n">
-        <v>995.1998815962415</v>
+        <v>234.3990370308081</v>
       </c>
       <c r="Y34" t="n">
-        <v>774.2416251641524</v>
+        <v>234.3990370308081</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1151.14420162777</v>
+        <v>444.6654130335402</v>
       </c>
       <c r="C35" t="n">
-        <v>780.4521857904543</v>
+        <v>444.6654130335402</v>
       </c>
       <c r="D35" t="n">
-        <v>420.2453850282337</v>
+        <v>444.6654130335402</v>
       </c>
       <c r="E35" t="n">
-        <v>33.25747012390293</v>
+        <v>444.6654130335402</v>
       </c>
       <c r="F35" t="n">
         <v>33.25747012390293</v>
@@ -6937,22 +6937,22 @@
         <v>33.25747012390293</v>
       </c>
       <c r="J35" t="n">
-        <v>34.07790110684738</v>
+        <v>208.1797760880145</v>
       </c>
       <c r="K35" t="n">
-        <v>84.77756976531606</v>
+        <v>592.6195615297545</v>
       </c>
       <c r="L35" t="n">
-        <v>496.3387625486148</v>
+        <v>691.4962014834485</v>
       </c>
       <c r="M35" t="n">
-        <v>637.2357774939921</v>
+        <v>832.393216428826</v>
       </c>
       <c r="N35" t="n">
-        <v>784.9111166138418</v>
+        <v>980.0685555486757</v>
       </c>
       <c r="O35" t="n">
-        <v>1029.860182781997</v>
+        <v>1106.512310983685</v>
       </c>
       <c r="P35" t="n">
         <v>1435.462476761984</v>
@@ -6961,28 +6961,28 @@
         <v>1662.873506195146</v>
       </c>
       <c r="R35" t="n">
-        <v>1662.873506195146</v>
+        <v>1652.17377418876</v>
       </c>
       <c r="S35" t="n">
-        <v>1662.873506195146</v>
+        <v>1652.17377418876</v>
       </c>
       <c r="T35" t="n">
-        <v>1662.873506195146</v>
+        <v>1597.458424017177</v>
       </c>
       <c r="U35" t="n">
-        <v>1662.873506195146</v>
+        <v>1597.458424017177</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.873506195146</v>
+        <v>1597.458424017177</v>
       </c>
       <c r="W35" t="n">
-        <v>1662.873506195146</v>
+        <v>1597.458424017177</v>
       </c>
       <c r="X35" t="n">
-        <v>1662.873506195146</v>
+        <v>1222.850748127107</v>
       </c>
       <c r="Y35" t="n">
-        <v>1538.736534952412</v>
+        <v>832.2577463581816</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>923.7200534680209</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="C36" t="n">
-        <v>750.9669383898381</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="D36" t="n">
-        <v>603.378631748782</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="E36" t="n">
-        <v>445.7691027516368</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="F36" t="n">
-        <v>300.8133127682536</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="G36" t="n">
-        <v>164.5454349446196</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="H36" t="n">
-        <v>81.75304121603693</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="I36" t="n">
         <v>33.25747012390293</v>
@@ -7019,10 +7019,10 @@
         <v>145.2220424002467</v>
       </c>
       <c r="K36" t="n">
-        <v>190.8995350793399</v>
+        <v>463.1929431074909</v>
       </c>
       <c r="L36" t="n">
-        <v>602.4607278626387</v>
+        <v>816.734420210977</v>
       </c>
       <c r="M36" t="n">
         <v>959.98528802805</v>
@@ -7043,25 +7043,25 @@
         <v>1637.337933762052</v>
       </c>
       <c r="S36" t="n">
-        <v>1637.337933762052</v>
+        <v>1522.007743350332</v>
       </c>
       <c r="T36" t="n">
-        <v>1637.337933762052</v>
+        <v>1326.173235910266</v>
       </c>
       <c r="U36" t="n">
-        <v>1410.485788609087</v>
+        <v>1099.321090757301</v>
       </c>
       <c r="V36" t="n">
-        <v>1176.234545134688</v>
+        <v>865.0698472829021</v>
       </c>
       <c r="W36" t="n">
-        <v>923.7200534680209</v>
+        <v>612.5553556162354</v>
       </c>
       <c r="X36" t="n">
-        <v>923.7200534680209</v>
+        <v>406.0284570218129</v>
       </c>
       <c r="Y36" t="n">
-        <v>923.7200534680209</v>
+        <v>200.3000212454634</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>975.9610333667947</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="C37" t="n">
-        <v>952.9896988384644</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="D37" t="n">
-        <v>802.4790255914752</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="E37" t="n">
-        <v>654.0198092549103</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="F37" t="n">
-        <v>506.3844340934917</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="G37" t="n">
-        <v>337.7457614366322</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="H37" t="n">
-        <v>182.8966743185455</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="I37" t="n">
-        <v>56.05698814481592</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="J37" t="n">
         <v>33.25747012390293</v>
@@ -7128,19 +7128,19 @@
         <v>975.9610333667947</v>
       </c>
       <c r="U37" t="n">
-        <v>975.9610333667947</v>
+        <v>687.0709881416509</v>
       </c>
       <c r="V37" t="n">
-        <v>975.9610333667947</v>
+        <v>431.5797244376719</v>
       </c>
       <c r="W37" t="n">
-        <v>975.9610333667947</v>
+        <v>142.5973235412926</v>
       </c>
       <c r="X37" t="n">
-        <v>975.9610333667947</v>
+        <v>33.25747012390293</v>
       </c>
       <c r="Y37" t="n">
-        <v>975.9610333667947</v>
+        <v>33.25747012390293</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>552.8364321899452</v>
+        <v>724.4509021849589</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8364321899452</v>
+        <v>724.4509021849589</v>
       </c>
       <c r="D38" t="n">
-        <v>552.8364321899452</v>
+        <v>364.2441014227383</v>
       </c>
       <c r="E38" t="n">
-        <v>165.8485172856144</v>
+        <v>364.2441014227383</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8485172856144</v>
+        <v>364.2441014227383</v>
       </c>
       <c r="G38" t="n">
-        <v>165.8485172856144</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="H38" t="n">
         <v>33.25747012390295</v>
@@ -7174,22 +7174,22 @@
         <v>33.25747012390295</v>
       </c>
       <c r="J38" t="n">
-        <v>34.0779011068474</v>
+        <v>208.1797760880145</v>
       </c>
       <c r="K38" t="n">
-        <v>84.77756976531609</v>
+        <v>515.9674333280676</v>
       </c>
       <c r="L38" t="n">
-        <v>397.1647322033816</v>
+        <v>614.8440732817617</v>
       </c>
       <c r="M38" t="n">
-        <v>538.061747148759</v>
+        <v>755.7410882271391</v>
       </c>
       <c r="N38" t="n">
-        <v>949.622939932058</v>
+        <v>903.4164273469888</v>
       </c>
       <c r="O38" t="n">
-        <v>1361.184132715357</v>
+        <v>1029.860182781998</v>
       </c>
       <c r="P38" t="n">
         <v>1435.462476761985</v>
@@ -7204,22 +7204,22 @@
         <v>1662.873506195147</v>
       </c>
       <c r="T38" t="n">
-        <v>1662.873506195147</v>
+        <v>1446.89564286552</v>
       </c>
       <c r="U38" t="n">
-        <v>1662.873506195147</v>
+        <v>1446.89564286552</v>
       </c>
       <c r="V38" t="n">
-        <v>1331.021767283512</v>
+        <v>1115.043903953884</v>
       </c>
       <c r="W38" t="n">
-        <v>1331.021767283512</v>
+        <v>1115.043903953884</v>
       </c>
       <c r="X38" t="n">
-        <v>1331.021767283512</v>
+        <v>1115.043903953884</v>
       </c>
       <c r="Y38" t="n">
-        <v>940.4287655145866</v>
+        <v>724.4509021849589</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>831.061129036148</v>
+        <v>384.3183601965654</v>
       </c>
       <c r="C39" t="n">
-        <v>658.3080139579652</v>
+        <v>384.3183601965654</v>
       </c>
       <c r="D39" t="n">
-        <v>510.719707316909</v>
+        <v>384.3183601965654</v>
       </c>
       <c r="E39" t="n">
-        <v>353.1101783197637</v>
+        <v>226.7088311994201</v>
       </c>
       <c r="F39" t="n">
-        <v>208.1543883363805</v>
+        <v>81.75304121603696</v>
       </c>
       <c r="G39" t="n">
-        <v>71.88651051274658</v>
+        <v>81.75304121603696</v>
       </c>
       <c r="H39" t="n">
-        <v>33.25747012390295</v>
+        <v>81.75304121603696</v>
       </c>
       <c r="I39" t="n">
         <v>33.25747012390295</v>
@@ -7265,13 +7265,13 @@
         <v>713.0273144105919</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.076008852835</v>
+        <v>874.1180352353759</v>
       </c>
       <c r="O39" t="n">
-        <v>1246.778246461934</v>
+        <v>1030.482671009104</v>
       </c>
       <c r="P39" t="n">
-        <v>1656.704901252746</v>
+        <v>1440.409325799916</v>
       </c>
       <c r="Q39" t="n">
         <v>1662.873506195147</v>
@@ -7280,25 +7280,25 @@
         <v>1662.873506195147</v>
       </c>
       <c r="S39" t="n">
-        <v>1662.873506195147</v>
+        <v>1513.181539557758</v>
       </c>
       <c r="T39" t="n">
-        <v>1662.873506195147</v>
+        <v>1317.347032117692</v>
       </c>
       <c r="U39" t="n">
-        <v>1662.873506195147</v>
+        <v>1283.339429708403</v>
       </c>
       <c r="V39" t="n">
-        <v>1662.873506195147</v>
+        <v>1049.088186234004</v>
       </c>
       <c r="W39" t="n">
-        <v>1410.359014528481</v>
+        <v>796.5736945673375</v>
       </c>
       <c r="X39" t="n">
-        <v>1203.832115934058</v>
+        <v>590.046795972915</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.1036801577085</v>
+        <v>384.3183601965654</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>842.1014864282506</v>
+        <v>478.9671780855725</v>
       </c>
       <c r="C40" t="n">
-        <v>673.074665285622</v>
+        <v>478.9671780855725</v>
       </c>
       <c r="D40" t="n">
-        <v>522.5639920386327</v>
+        <v>328.4565048385833</v>
       </c>
       <c r="E40" t="n">
-        <v>374.1047757020679</v>
+        <v>328.4565048385833</v>
       </c>
       <c r="F40" t="n">
-        <v>226.4694005406492</v>
+        <v>201.8961427807624</v>
       </c>
       <c r="G40" t="n">
-        <v>57.83072788378968</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="H40" t="n">
         <v>33.25747012390295</v>
@@ -7353,31 +7353,31 @@
         <v>975.9610333667947</v>
       </c>
       <c r="Q40" t="n">
-        <v>974.673806047904</v>
+        <v>975.9610333667947</v>
       </c>
       <c r="R40" t="n">
-        <v>842.1014864282506</v>
+        <v>975.9610333667947</v>
       </c>
       <c r="S40" t="n">
-        <v>842.1014864282506</v>
+        <v>767.8572233107163</v>
       </c>
       <c r="T40" t="n">
-        <v>842.1014864282506</v>
+        <v>767.8572233107163</v>
       </c>
       <c r="U40" t="n">
-        <v>842.1014864282506</v>
+        <v>478.9671780855725</v>
       </c>
       <c r="V40" t="n">
-        <v>842.1014864282506</v>
+        <v>478.9671780855725</v>
       </c>
       <c r="W40" t="n">
-        <v>842.1014864282506</v>
+        <v>478.9671780855725</v>
       </c>
       <c r="X40" t="n">
-        <v>842.1014864282506</v>
+        <v>478.9671780855725</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.1014864282506</v>
+        <v>478.9671780855725</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1272.280504426222</v>
+        <v>820.8840406584321</v>
       </c>
       <c r="C41" t="n">
-        <v>901.5884885889064</v>
+        <v>450.1920248211163</v>
       </c>
       <c r="D41" t="n">
-        <v>901.5884885889064</v>
+        <v>450.1920248211163</v>
       </c>
       <c r="E41" t="n">
-        <v>901.5884885889064</v>
+        <v>450.1920248211163</v>
       </c>
       <c r="F41" t="n">
-        <v>490.1805456792692</v>
+        <v>450.1920248211163</v>
       </c>
       <c r="G41" t="n">
-        <v>479.1270921518672</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="H41" t="n">
-        <v>159.1834200245159</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="I41" t="n">
         <v>33.25747012390295</v>
       </c>
       <c r="J41" t="n">
-        <v>208.1797760880145</v>
+        <v>34.0779011068474</v>
       </c>
       <c r="K41" t="n">
-        <v>592.6195615297545</v>
+        <v>418.5176865485873</v>
       </c>
       <c r="L41" t="n">
-        <v>879.6501002502687</v>
+        <v>517.3943265022814</v>
       </c>
       <c r="M41" t="n">
-        <v>1020.547115195646</v>
+        <v>658.2913414476589</v>
       </c>
       <c r="N41" t="n">
-        <v>1168.222454315496</v>
+        <v>836.8985043821372</v>
       </c>
       <c r="O41" t="n">
-        <v>1579.783647098795</v>
+        <v>1248.459697165436</v>
       </c>
       <c r="P41" t="n">
         <v>1654.061991145423</v>
@@ -7444,19 +7444,19 @@
         <v>1662.873506195147</v>
       </c>
       <c r="U41" t="n">
-        <v>1662.873506195147</v>
+        <v>1540.328112894709</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.873506195147</v>
+        <v>1208.476373983074</v>
       </c>
       <c r="W41" t="n">
-        <v>1662.873506195147</v>
+        <v>1208.476373983074</v>
       </c>
       <c r="X41" t="n">
-        <v>1662.873506195147</v>
+        <v>1208.476373983074</v>
       </c>
       <c r="Y41" t="n">
-        <v>1272.280504426222</v>
+        <v>1208.476373983074</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>782.2130747795563</v>
+        <v>387.3083248929553</v>
       </c>
       <c r="C42" t="n">
-        <v>609.4599597013735</v>
+        <v>338.4553057621044</v>
       </c>
       <c r="D42" t="n">
-        <v>461.8716530603173</v>
+        <v>190.8669991210483</v>
       </c>
       <c r="E42" t="n">
-        <v>304.262124063172</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="F42" t="n">
-        <v>159.3063340797889</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="G42" t="n">
         <v>33.25747012390295</v>
@@ -7490,19 +7490,19 @@
         <v>33.25747012390295</v>
       </c>
       <c r="J42" t="n">
-        <v>33.25747012390295</v>
+        <v>145.2220424002468</v>
       </c>
       <c r="K42" t="n">
-        <v>351.2283708311471</v>
+        <v>463.1929431074909</v>
       </c>
       <c r="L42" t="n">
-        <v>762.789563614446</v>
+        <v>677.8576393913121</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0404314315191</v>
+        <v>821.1085072083852</v>
       </c>
       <c r="N42" t="n">
-        <v>1067.131152256303</v>
+        <v>1232.669699991684</v>
       </c>
       <c r="O42" t="n">
         <v>1358.371937600783</v>
@@ -7517,25 +7517,25 @@
         <v>1662.873506195147</v>
       </c>
       <c r="S42" t="n">
-        <v>1662.873506195147</v>
+        <v>1513.181539557758</v>
       </c>
       <c r="T42" t="n">
-        <v>1662.873506195147</v>
+        <v>1513.181539557758</v>
       </c>
       <c r="U42" t="n">
-        <v>1436.021361042183</v>
+        <v>1286.329394404793</v>
       </c>
       <c r="V42" t="n">
-        <v>1201.770117567783</v>
+        <v>1052.078150930394</v>
       </c>
       <c r="W42" t="n">
-        <v>949.2556259011168</v>
+        <v>799.5636592637273</v>
       </c>
       <c r="X42" t="n">
-        <v>949.2556259011168</v>
+        <v>593.0367606693048</v>
       </c>
       <c r="Y42" t="n">
-        <v>949.2556259011168</v>
+        <v>387.3083248929553</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.9229639233911</v>
+        <v>352.7949645135208</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8961427807624</v>
+        <v>183.7681433708922</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8961427807624</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="E43" t="n">
-        <v>201.8961427807624</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="F43" t="n">
-        <v>201.8961427807624</v>
+        <v>33.25747012390295</v>
       </c>
       <c r="G43" t="n">
         <v>33.25747012390295</v>
@@ -7596,25 +7596,25 @@
         <v>975.9610333667947</v>
       </c>
       <c r="S43" t="n">
-        <v>880.8636212518595</v>
+        <v>767.8572233107163</v>
       </c>
       <c r="T43" t="n">
-        <v>880.8636212518595</v>
+        <v>767.8572233107163</v>
       </c>
       <c r="U43" t="n">
-        <v>880.8636212518595</v>
+        <v>641.7773654099001</v>
       </c>
       <c r="V43" t="n">
-        <v>880.8636212518595</v>
+        <v>641.7773654099001</v>
       </c>
       <c r="W43" t="n">
-        <v>591.8812203554802</v>
+        <v>352.7949645135208</v>
       </c>
       <c r="X43" t="n">
-        <v>591.8812203554802</v>
+        <v>352.7949645135208</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.9229639233911</v>
+        <v>352.7949645135208</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1181.543639858105</v>
+        <v>214.7509328157148</v>
       </c>
       <c r="C44" t="n">
-        <v>1181.543639858105</v>
+        <v>214.7509328157148</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.543639858105</v>
+        <v>214.7509328157148</v>
       </c>
       <c r="E44" t="n">
-        <v>1181.543639858105</v>
+        <v>214.7509328157148</v>
       </c>
       <c r="F44" t="n">
-        <v>770.1356969484677</v>
+        <v>159.1834200245159</v>
       </c>
       <c r="G44" t="n">
-        <v>353.2011422512543</v>
+        <v>159.1834200245159</v>
       </c>
       <c r="H44" t="n">
-        <v>33.25747012390295</v>
+        <v>159.1834200245159</v>
       </c>
       <c r="I44" t="n">
         <v>33.25747012390295</v>
       </c>
       <c r="J44" t="n">
-        <v>208.1797760880145</v>
+        <v>34.0779011068474</v>
       </c>
       <c r="K44" t="n">
-        <v>592.6195615297545</v>
+        <v>84.77756976531609</v>
       </c>
       <c r="L44" t="n">
-        <v>691.4962014834485</v>
+        <v>496.338762548615</v>
       </c>
       <c r="M44" t="n">
-        <v>832.393216428826</v>
+        <v>756.6612615321967</v>
       </c>
       <c r="N44" t="n">
-        <v>980.0685555486757</v>
+        <v>1168.222454315496</v>
       </c>
       <c r="O44" t="n">
-        <v>1248.459697165436</v>
+        <v>1579.783647098795</v>
       </c>
       <c r="P44" t="n">
         <v>1654.061991145423</v>
@@ -7675,25 +7675,25 @@
         <v>1662.873506195147</v>
       </c>
       <c r="S44" t="n">
-        <v>1503.02584094781</v>
+        <v>1662.873506195147</v>
       </c>
       <c r="T44" t="n">
-        <v>1287.047977618183</v>
+        <v>1662.873506195147</v>
       </c>
       <c r="U44" t="n">
-        <v>1287.047977618183</v>
+        <v>1662.873506195147</v>
       </c>
       <c r="V44" t="n">
-        <v>1287.047977618183</v>
+        <v>1331.021767283512</v>
       </c>
       <c r="W44" t="n">
-        <v>1287.047977618183</v>
+        <v>976.9509420304263</v>
       </c>
       <c r="X44" t="n">
-        <v>1287.047977618183</v>
+        <v>602.3432661403563</v>
       </c>
       <c r="Y44" t="n">
-        <v>1287.047977618183</v>
+        <v>602.3432661403563</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>596.809885561749</v>
+        <v>386.9508768542384</v>
       </c>
       <c r="C45" t="n">
-        <v>424.0567704835661</v>
+        <v>386.9508768542384</v>
       </c>
       <c r="D45" t="n">
-        <v>276.46846384251</v>
+        <v>239.3625702131823</v>
       </c>
       <c r="E45" t="n">
-        <v>118.8589348453647</v>
+        <v>81.75304121603696</v>
       </c>
       <c r="F45" t="n">
-        <v>33.25747012390295</v>
+        <v>81.75304121603696</v>
       </c>
       <c r="G45" t="n">
-        <v>33.25747012390295</v>
+        <v>81.75304121603696</v>
       </c>
       <c r="H45" t="n">
-        <v>33.25747012390295</v>
+        <v>81.75304121603696</v>
       </c>
       <c r="I45" t="n">
         <v>33.25747012390295</v>
       </c>
       <c r="J45" t="n">
-        <v>33.25747012390295</v>
+        <v>145.2220424002468</v>
       </c>
       <c r="K45" t="n">
-        <v>351.2283708311471</v>
+        <v>463.1929431074909</v>
       </c>
       <c r="L45" t="n">
-        <v>762.789563614446</v>
+        <v>569.7764465935188</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0404314315191</v>
+        <v>981.3376393768178</v>
       </c>
       <c r="N45" t="n">
-        <v>1067.131152256303</v>
+        <v>1142.428360201602</v>
       </c>
       <c r="O45" t="n">
-        <v>1246.778246461934</v>
+        <v>1358.371937600783</v>
       </c>
       <c r="P45" t="n">
-        <v>1656.704901252746</v>
+        <v>1440.409325799916</v>
       </c>
       <c r="Q45" t="n">
         <v>1662.873506195147</v>
@@ -7757,22 +7757,22 @@
         <v>1662.873506195147</v>
       </c>
       <c r="T45" t="n">
-        <v>1662.873506195147</v>
+        <v>1467.038998755081</v>
       </c>
       <c r="U45" t="n">
-        <v>1662.873506195147</v>
+        <v>1240.186853602116</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.622262720748</v>
+        <v>1005.935610127717</v>
       </c>
       <c r="W45" t="n">
-        <v>1176.107771054081</v>
+        <v>753.4211184610505</v>
       </c>
       <c r="X45" t="n">
-        <v>969.580872459659</v>
+        <v>753.4211184610505</v>
       </c>
       <c r="Y45" t="n">
-        <v>763.8524366833094</v>
+        <v>553.9934279757988</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
       <c r="C46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
       <c r="D46" t="n">
-        <v>749.3674718502496</v>
+        <v>390.7529885471819</v>
       </c>
       <c r="E46" t="n">
-        <v>631.2202912339974</v>
+        <v>242.2937722106171</v>
       </c>
       <c r="F46" t="n">
-        <v>483.5849160725787</v>
+        <v>242.2937722106171</v>
       </c>
       <c r="G46" t="n">
-        <v>314.9462434157192</v>
+        <v>242.2937722106171</v>
       </c>
       <c r="H46" t="n">
         <v>160.0971562976325</v>
@@ -7833,25 +7833,25 @@
         <v>975.9610333667947</v>
       </c>
       <c r="S46" t="n">
-        <v>975.9610333667947</v>
+        <v>767.8572233107163</v>
       </c>
       <c r="T46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
       <c r="U46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
       <c r="V46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
       <c r="W46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
       <c r="X46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
       <c r="Y46" t="n">
-        <v>749.3674718502496</v>
+        <v>541.2636617941712</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>107.6886014521361</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,19 +8698,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>98.16538575154181</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>91.3185936561153</v>
       </c>
       <c r="O11" t="n">
-        <v>112.7646377822163</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.547463298620244</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8771,10 +8771,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>66.05888523899614</v>
       </c>
       <c r="L12" t="n">
-        <v>66.05888523899617</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>95.78775658821286</v>
@@ -8929,13 +8929,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>23.14671532929475</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>98.16538575154186</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>121.3121010808367</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>18.03914920216272</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>56.46179013378858</v>
+        <v>161.8466418272091</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9096,7 +9096,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N16" t="n">
-        <v>178.6904255182404</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
         <v>169.5633330205178</v>
@@ -9166,7 +9166,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>121.3121010808364</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.3121010808368</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9242,16 +9242,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>18.03914920216272</v>
+        <v>74.50093933595107</v>
       </c>
       <c r="K18" t="n">
-        <v>179.1544127908588</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>95.78775658821291</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>189.273816344379</v>
+        <v>121.3121010808364</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>91.3185936561153</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16.58017085929907</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>18.03914920216272</v>
       </c>
       <c r="K21" t="n">
-        <v>161.8466418272093</v>
+        <v>194.3467213740511</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>80.59544800502033</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
-        <v>467.4940748325458</v>
+        <v>44.39957768882576</v>
       </c>
       <c r="N23" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
-        <v>287.7710911638844</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9716,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>18.03914920216272</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>147.9088564341853</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>484.3332662999999</v>
+        <v>187.9071696522803</v>
       </c>
       <c r="N24" t="n">
-        <v>493.4860795938571</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>23.92643943283066</v>
       </c>
       <c r="M26" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4356165446712</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>18.03914920216272</v>
+        <v>53.18895935158866</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,13 +9965,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>366.3510895349607</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>454.8408013884635</v>
+        <v>44.39957768882581</v>
       </c>
       <c r="O29" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
-        <v>190.5146571054276</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10193,16 +10193,16 @@
         <v>18.03914920216272</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>202.3815361642483</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>493.4860795938571</v>
+        <v>202.3433900197406</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>290.211663739554</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>265.2071679751267</v>
       </c>
       <c r="N32" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>396.0321885132552</v>
@@ -10436,7 +10436,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>301.0408433486507</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
         <v>493.4860795938571</v>
@@ -10445,7 +10445,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>331.2012793855346</v>
+        <v>147.908856434185</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L35" t="n">
-        <v>315.8429826561663</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>119.7023340738847</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>334.6706564983419</v>
+        <v>257.2442643754246</v>
       </c>
       <c r="Q35" t="n">
         <v>220.8075902863009</v>
@@ -10667,13 +10667,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>308.0582720174453</v>
+        <v>249.4524986034931</v>
       </c>
       <c r="M36" t="n">
-        <v>216.4380730791296</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>259.6848369510953</v>
       </c>
       <c r="L38" t="n">
-        <v>215.6671944286581</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>266.5513673368175</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>287.9974114629186</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>249.4524986034943</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>30.97211935821116</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
-        <v>190.0544431988082</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>31.24426647942286</v>
       </c>
       <c r="O41" t="n">
-        <v>287.9974114629185</v>
+        <v>287.9974114629186</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>18.03914920216272</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>308.0582720174456</v>
+        <v>109.1729220179731</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>253.0004767257727</v>
       </c>
       <c r="O42" t="n">
-        <v>167.2106542781628</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>315.8429826561666</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>120.6318020587922</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>266.5513673368175</v>
       </c>
       <c r="O44" t="n">
-        <v>143.3811981633847</v>
+        <v>287.9974114629186</v>
       </c>
       <c r="P44" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>18.03914920216272</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>308.0582720174456</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>271.0205302689151</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>54.48975413791132</v>
+        <v>91.1528684748306</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>143.2308071233104</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23266,19 +23266,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>295.9650071506854</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>166.8082606124562</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>172.2796062821566</v>
       </c>
       <c r="H11" t="n">
-        <v>76.25863253799315</v>
+        <v>316.7442354060778</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>124.6666904016068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.59273468632259</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>158.2491885948638</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8180846963314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3105990762572</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>158.7925692595962</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>130.2435078145934</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9051990453976</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.28021670876377</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>148.1950469710155</v>
       </c>
       <c r="T12" t="n">
-        <v>46.81869838365004</v>
+        <v>193.8761623656656</v>
       </c>
       <c r="U12" t="n">
-        <v>224.5836237014351</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -23405,7 +23405,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,16 +23418,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>135.4335141541154</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.9522859302909</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.274355045701768</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>131.2465964234568</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>206.0227719555176</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>224.3276259013797</v>
       </c>
       <c r="U13" t="n">
-        <v>156.0815693565701</v>
+        <v>286.0011447728924</v>
       </c>
       <c r="V13" t="n">
-        <v>12.45074819885451</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>45.60697401933089</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>295.9650071506853</v>
+        <v>144.6307985773252</v>
       </c>
       <c r="F14" t="n">
-        <v>166.8082606124561</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>172.2796062821565</v>
       </c>
       <c r="H14" t="n">
-        <v>76.25863253799309</v>
+        <v>316.7442354060778</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>124.6666904016068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>158.2491885948638</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8180846963314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3105990762572</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>88.04761865443467</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>116.62171426587</v>
       </c>
       <c r="G15" t="n">
         <v>134.9051990453976</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.6648814276693</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.28021670876377</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>148.1950469710155</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>193.8761623656656</v>
@@ -23636,13 +23636,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>9.503743881915369</v>
       </c>
       <c r="X15" t="n">
-        <v>114.9628934704029</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.274355045701768</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>61.61566294091024</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>206.0227719555176</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.51554190480766</v>
+        <v>45.51554190480769</v>
       </c>
       <c r="V16" t="n">
-        <v>123.0167756506167</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23721,7 +23721,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>126.499492810858</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>295.9650071506853</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>166.8082606124561</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>172.2796062821565</v>
+        <v>412.7652091502412</v>
       </c>
       <c r="H17" t="n">
-        <v>76.25863253799309</v>
+        <v>131.2800090428242</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>10.59273468632259</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>158.2491885948638</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8180846963314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3105990762572</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.3539671469312</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>134.9051990453976</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.28021670876377</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>148.1950469710155</v>
@@ -23867,16 +23867,16 @@
         <v>193.8761623656656</v>
       </c>
       <c r="U18" t="n">
-        <v>224.5836237014351</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>9.503743881915398</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>172.6839758889587</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -23895,7 +23895,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>142.4409332177448</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>30.00891536310954</v>
       </c>
       <c r="H19" t="n">
-        <v>153.3005962469059</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>125.5712893119922</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>22.57152284070386</v>
@@ -23943,10 +23943,10 @@
         <v>206.0227719555176</v>
       </c>
       <c r="T19" t="n">
-        <v>224.3276259013797</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>45.51554190480766</v>
+        <v>286.0011447728924</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23955,7 +23955,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>171.8966909851862</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
@@ -23983,10 +23983,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>172.2796062821565</v>
+        <v>412.7652091502412</v>
       </c>
       <c r="H20" t="n">
-        <v>76.25863253799309</v>
+        <v>316.7442354060778</v>
       </c>
       <c r="I20" t="n">
         <v>124.6666904016068</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>10.59273468632259</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>158.2491885948638</v>
       </c>
       <c r="T20" t="n">
-        <v>170.8402889713088</v>
+        <v>213.8180846963314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3105990762572</v>
+        <v>10.82499620817259</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>88.0476186544347</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>110.0445141324699</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>146.2014688831511</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>134.9051990453976</v>
@@ -24098,22 +24098,22 @@
         <v>25.28021670876377</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.1950469710155</v>
       </c>
       <c r="T21" t="n">
         <v>193.8761623656656</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.5836237014351</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>64.90645293519211</v>
+        <v>64.56772897266109</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24138,16 +24138,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>50.37084412111268</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.3005962469059</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>125.5712893119922</v>
       </c>
       <c r="J22" t="n">
         <v>22.57152284070386</v>
@@ -24177,19 +24177,19 @@
         <v>131.2465964234568</v>
       </c>
       <c r="S22" t="n">
-        <v>206.0227719555176</v>
+        <v>100.7534275021988</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>224.3276259013797</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0011447728924</v>
+        <v>45.51554190480772</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>45.60697401933089</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.7652091502412</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>316.7442354060778</v>
       </c>
       <c r="I23" t="n">
-        <v>124.6666904016068</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>10.59273468632259</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>84.04965457054698</v>
+        <v>45.3540323340855</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3105990762572</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24378,13 +24378,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9522859302909</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.3005962469059</v>
       </c>
       <c r="I25" t="n">
-        <v>24.68914858392746</v>
+        <v>125.5712893119922</v>
       </c>
       <c r="J25" t="n">
         <v>22.57152284070386</v>
@@ -24417,19 +24417,19 @@
         <v>206.0227719555176</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3276259013797</v>
+        <v>116.0811710181639</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>274.6877188085983</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>83.35249954134571</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>412.7652091502412</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.8180846963314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>71.74581814477484</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9522859302909</v>
       </c>
       <c r="H28" t="n">
-        <v>153.3005962469059</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>125.5712893119922</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>22.57152284070386</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>131.2465964234568</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>206.0227719555176</v>
       </c>
       <c r="T28" t="n">
         <v>224.3276259013797</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0011447728924</v>
+        <v>61.25483134684782</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24666,7 +24666,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>320.467832279897</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24688,10 +24688,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>158.2491885948638</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>22.2566053215298</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3105990762572</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>142.2870393869687</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
@@ -24888,22 +24888,22 @@
         <v>131.2465964234568</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>206.0227719555176</v>
       </c>
       <c r="T31" t="n">
         <v>224.3276259013797</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0011447728924</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>117.8939050490934</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>10.59273468632259</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>94.05060676213525</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3105990762572</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>280.4392699252251</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
@@ -25083,22 +25083,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>47.00148617020189</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9522859302909</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.3005962469059</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.5712893119922</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>22.57152284070386</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>206.0227719555176</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3276259013797</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0011447728924</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>10.1637177359554</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>412.7652091502412</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>10.59273468632259</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>158.2491885948638</v>
       </c>
       <c r="T35" t="n">
-        <v>213.8180846963314</v>
+        <v>159.6498880264643</v>
       </c>
       <c r="U35" t="n">
         <v>251.3105990762572</v>
@@ -25219,10 +25219,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>263.7914702209284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>134.9051990453976</v>
       </c>
       <c r="H36" t="n">
-        <v>17.70041163637245</v>
+        <v>99.6648814276693</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.01061538121267</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>148.1950469710155</v>
+        <v>34.01815846341341</v>
       </c>
       <c r="T36" t="n">
-        <v>193.8761623656656</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,28 +25314,28 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>144.5949317481553</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9522859302909</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.3005962469059</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>125.5712893119922</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>22.57152284070386</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>224.3276259013797</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0011447728924</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>117.8939050490935</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>412.7652091502412</v>
+        <v>85.08844416439433</v>
       </c>
       <c r="H38" t="n">
-        <v>185.4790987159835</v>
+        <v>316.7442354060778</v>
       </c>
       <c r="I38" t="n">
         <v>124.6666904016068</v>
@@ -25444,7 +25444,7 @@
         <v>158.2491885948638</v>
       </c>
       <c r="T38" t="n">
-        <v>213.8180846963314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3105990762572</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>134.9051990453976</v>
       </c>
       <c r="H39" t="n">
-        <v>61.4221314427141</v>
+        <v>99.6648814276693</v>
       </c>
       <c r="I39" t="n">
-        <v>48.01061538121267</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>25.28021670876377</v>
       </c>
       <c r="S39" t="n">
-        <v>148.1950469710155</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>193.8761623656656</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.5836237014351</v>
+        <v>190.9160973162398</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>20.86426297256187</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>128.973071064618</v>
+        <v>153.3005962469059</v>
       </c>
       <c r="I40" t="n">
         <v>125.5712893119922</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.274355045701768</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>131.2465964234568</v>
       </c>
       <c r="S40" t="n">
-        <v>206.0227719555176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>224.3276259013797</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0011447728924</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>401.8222901581133</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>316.7442354060778</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>124.6666904016068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>213.8180846963314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3105990762572</v>
+        <v>129.9906597088236</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25696,7 +25696,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>122.6610949878586</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>10.11682372907056</v>
+        <v>134.9051990453976</v>
       </c>
       <c r="H42" t="n">
         <v>99.6648814276693</v>
@@ -25757,7 +25757,7 @@
         <v>25.28021670876377</v>
       </c>
       <c r="S42" t="n">
-        <v>148.1950469710155</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>193.8761623656656</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9522859302909</v>
       </c>
       <c r="H43" t="n">
         <v>153.3005962469059</v>
@@ -25836,13 +25836,13 @@
         <v>131.2465964234568</v>
       </c>
       <c r="S43" t="n">
-        <v>111.8763339617317</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>224.3276259013797</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0011447728924</v>
+        <v>161.1820854510843</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25854,7 +25854,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>279.2671156089183</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25876,16 +25876,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>352.2820258172539</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.7652091502412</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>316.7442354060778</v>
       </c>
       <c r="I44" t="n">
-        <v>124.6666904016068</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>10.59273468632259</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>158.2491885948638</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.8180846963314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3105990762572</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>58.76078200930216</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>134.9051990453976</v>
@@ -25964,7 +25964,7 @@
         <v>99.6648814276693</v>
       </c>
       <c r="I45" t="n">
-        <v>48.01061538121267</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>148.1950469710155</v>
       </c>
       <c r="T45" t="n">
-        <v>193.8761623656656</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.5836237014351</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>6.237737838186888</v>
       </c>
     </row>
     <row r="46">
@@ -26028,19 +26028,19 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>30.00891536310954</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9522859302909</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>71.92594649305107</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>131.2465964234568</v>
       </c>
       <c r="S46" t="n">
-        <v>206.0227719555176</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>452977.9523824561</v>
+        <v>452977.952382456</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734652.5163542387</v>
+        <v>734652.5163542388</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734652.5163542386</v>
+        <v>734652.5163542387</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734652.5163542386</v>
+        <v>734652.5163542388</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734652.5163542386</v>
+        <v>734652.5163542387</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>571708.8478743598</v>
+        <v>571708.8478743596</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>571708.8478743597</v>
+        <v>571708.8478743599</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>571708.8478743596</v>
+        <v>571708.8478743599</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>507597.7360973376</v>
+      </c>
+      <c r="C2" t="n">
         <v>507597.7360973377</v>
       </c>
-      <c r="C2" t="n">
-        <v>507597.7360973378</v>
-      </c>
       <c r="D2" t="n">
-        <v>507597.7360973377</v>
+        <v>507597.7360973379</v>
       </c>
       <c r="E2" t="n">
         <v>240096.8995086157</v>
@@ -26334,28 +26334,28 @@
         <v>240096.8995086157</v>
       </c>
       <c r="I2" t="n">
-        <v>363112.5400315432</v>
+        <v>363112.5400315435</v>
       </c>
       <c r="J2" t="n">
+        <v>363112.5400315434</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363112.5400315434</v>
+      </c>
+      <c r="L2" t="n">
         <v>363112.5400315433</v>
       </c>
-      <c r="K2" t="n">
-        <v>363112.5400315432</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363112.5400315432</v>
-      </c>
       <c r="M2" t="n">
-        <v>291950.2048012459</v>
+        <v>291950.2048012458</v>
       </c>
       <c r="N2" t="n">
-        <v>291950.2048012459</v>
+        <v>291950.2048012458</v>
       </c>
       <c r="O2" t="n">
         <v>291950.2048012458</v>
       </c>
       <c r="P2" t="n">
-        <v>291950.2048012459</v>
+        <v>291950.2048012458</v>
       </c>
     </row>
     <row r="3">
@@ -26432,10 +26432,10 @@
         <v>21012.07072184665</v>
       </c>
       <c r="G4" t="n">
-        <v>21012.07072184665</v>
+        <v>21012.07072184663</v>
       </c>
       <c r="H4" t="n">
-        <v>21012.07072184665</v>
+        <v>21012.07072184664</v>
       </c>
       <c r="I4" t="n">
         <v>81559.71380751184</v>
@@ -26450,10 +26450,10 @@
         <v>81559.71380751184</v>
       </c>
       <c r="M4" t="n">
-        <v>46533.99141684185</v>
+        <v>46533.99141684184</v>
       </c>
       <c r="N4" t="n">
-        <v>46533.99141684189</v>
+        <v>46533.99141684188</v>
       </c>
       <c r="O4" t="n">
         <v>46533.99141684188</v>
@@ -26484,10 +26484,10 @@
         <v>25952.66582853314</v>
       </c>
       <c r="G5" t="n">
-        <v>25952.66582853314</v>
+        <v>25952.66582853313</v>
       </c>
       <c r="H5" t="n">
-        <v>25952.66582853314</v>
+        <v>25952.66582853313</v>
       </c>
       <c r="I5" t="n">
         <v>51228.34312269936</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67874.40427325643</v>
+        <v>67830.32850177638</v>
       </c>
       <c r="C6" t="n">
-        <v>67874.40427325648</v>
+        <v>67830.3285017765</v>
       </c>
       <c r="D6" t="n">
-        <v>67874.40427325637</v>
+        <v>67830.32850177668</v>
       </c>
       <c r="E6" t="n">
-        <v>-296262.0433720906</v>
+        <v>-307006.1526071194</v>
       </c>
       <c r="F6" t="n">
-        <v>193132.1629582361</v>
+        <v>182388.0537232073</v>
       </c>
       <c r="G6" t="n">
-        <v>193132.1629582359</v>
+        <v>182388.0537232072</v>
       </c>
       <c r="H6" t="n">
-        <v>193132.1629582359</v>
+        <v>182388.0537232072</v>
       </c>
       <c r="I6" t="n">
-        <v>119776.2366911022</v>
+        <v>113952.7530769908</v>
       </c>
       <c r="J6" t="n">
-        <v>230324.4831013321</v>
+        <v>224500.9994872205</v>
       </c>
       <c r="K6" t="n">
-        <v>230324.483101332</v>
+        <v>224500.9994872205</v>
       </c>
       <c r="L6" t="n">
-        <v>230324.483101332</v>
+        <v>224500.9994872204</v>
       </c>
       <c r="M6" t="n">
-        <v>208809.3949160843</v>
+        <v>200139.4178927605</v>
       </c>
       <c r="N6" t="n">
-        <v>208809.3949160842</v>
+        <v>200139.4178927605</v>
       </c>
       <c r="O6" t="n">
-        <v>208809.3949160841</v>
+        <v>200139.4178927605</v>
       </c>
       <c r="P6" t="n">
-        <v>208809.3949160842</v>
+        <v>200139.4178927606</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>240.4856028680847</v>
       </c>
       <c r="G4" t="n">
-        <v>240.4856028680847</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="H4" t="n">
-        <v>240.4856028680847</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="I4" t="n">
         <v>656.2039794168712</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.6891979435471</v>
+        <v>108.5173196167264</v>
       </c>
       <c r="K11" t="n">
         <v>51.21178652370574</v>
@@ -35418,19 +35418,19 @@
         <v>99.87539389262025</v>
       </c>
       <c r="M11" t="n">
-        <v>142.3202171165428</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1670092119694</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="O11" t="n">
-        <v>240.4856028680846</v>
+        <v>127.7209650858683</v>
       </c>
       <c r="P11" t="n">
         <v>75.02863035012916</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.44798355086753</v>
+        <v>8.900520252247276</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>113.0955275518625</v>
       </c>
       <c r="K12" t="n">
-        <v>46.13888149403351</v>
+        <v>112.1977667330297</v>
       </c>
       <c r="L12" t="n">
-        <v>173.7189897703374</v>
+        <v>107.6601045313413</v>
       </c>
       <c r="M12" t="n">
         <v>240.4856028680846</v>
@@ -35649,13 +35649,13 @@
         <v>176.6891979435471</v>
       </c>
       <c r="K14" t="n">
-        <v>74.35850185300052</v>
+        <v>51.21178652370574</v>
       </c>
       <c r="L14" t="n">
         <v>99.87539389262025</v>
       </c>
       <c r="M14" t="n">
-        <v>240.4856028680847</v>
+        <v>142.3202171165428</v>
       </c>
       <c r="N14" t="n">
         <v>149.1670092119694</v>
@@ -35667,7 +35667,7 @@
         <v>75.02863035012916</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.900520252247276</v>
+        <v>130.212621333084</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>113.0955275518625</v>
       </c>
       <c r="K15" t="n">
-        <v>102.6006716278221</v>
+        <v>207.9855233212426</v>
       </c>
       <c r="L15" t="n">
         <v>107.6601045313413</v>
@@ -35746,7 +35746,7 @@
         <v>82.86604868599207</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.711293328517</v>
+        <v>6.230914083233927</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>197.1239136864335</v>
       </c>
       <c r="N16" t="n">
-        <v>197.6299414457536</v>
+        <v>197.6299414457534</v>
       </c>
       <c r="O16" t="n">
         <v>167.0517265859494</v>
@@ -35886,7 +35886,7 @@
         <v>176.6891979435471</v>
       </c>
       <c r="K17" t="n">
-        <v>51.21178652370574</v>
+        <v>172.5238876045421</v>
       </c>
       <c r="L17" t="n">
         <v>99.87539389262025</v>
@@ -35904,7 +35904,7 @@
         <v>75.02863035012916</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.2126213330841</v>
+        <v>8.900520252247276</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>56.46179013378836</v>
       </c>
       <c r="K18" t="n">
-        <v>225.2932942848923</v>
+        <v>46.13888149403351</v>
       </c>
       <c r="L18" t="n">
         <v>107.6601045313413</v>
       </c>
       <c r="M18" t="n">
-        <v>240.4856028680847</v>
+        <v>144.6978462798718</v>
       </c>
       <c r="N18" t="n">
         <v>162.7178998230142</v>
@@ -35983,7 +35983,7 @@
         <v>82.86604868599207</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.230914083233927</v>
+        <v>224.711293328517</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8287181645903559</v>
+        <v>176.6891979435471</v>
       </c>
       <c r="K20" t="n">
-        <v>240.4856028680847</v>
+        <v>172.5238876045421</v>
       </c>
       <c r="L20" t="n">
         <v>99.87539389262025</v>
@@ -36132,10 +36132,10 @@
         <v>142.3202171165428</v>
       </c>
       <c r="N20" t="n">
-        <v>240.4856028680847</v>
+        <v>149.1670092119694</v>
       </c>
       <c r="O20" t="n">
-        <v>144.3011359451674</v>
+        <v>127.7209650858683</v>
       </c>
       <c r="P20" t="n">
         <v>75.02863035012916</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>113.0955275518625</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>207.9855233212427</v>
+        <v>240.4856028680846</v>
       </c>
       <c r="L21" t="n">
         <v>107.6601045313413</v>
@@ -36214,7 +36214,7 @@
         <v>162.7178998230142</v>
       </c>
       <c r="O21" t="n">
-        <v>126.9719571809083</v>
+        <v>207.5674051859287</v>
       </c>
       <c r="P21" t="n">
         <v>82.86604868599207</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8287181645903559</v>
+        <v>176.6891979435471</v>
       </c>
       <c r="K23" t="n">
         <v>388.3230155977171</v>
       </c>
       <c r="L23" t="n">
-        <v>99.87539389262025</v>
+        <v>534.2430570250887</v>
       </c>
       <c r="M23" t="n">
-        <v>609.8142919490887</v>
+        <v>186.7197948053686</v>
       </c>
       <c r="N23" t="n">
-        <v>604.0078106004329</v>
+        <v>149.1670092119694</v>
       </c>
       <c r="O23" t="n">
         <v>523.7531535991235</v>
       </c>
       <c r="P23" t="n">
-        <v>362.7997215140135</v>
+        <v>409.6992868484711</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.900520252247276</v>
+        <v>229.7081105385481</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>113.0955275518625</v>
       </c>
       <c r="K24" t="n">
-        <v>194.0477379282188</v>
+        <v>321.1827279871153</v>
       </c>
       <c r="L24" t="n">
         <v>493.3340636469388</v>
       </c>
       <c r="M24" t="n">
-        <v>629.0311125798717</v>
+        <v>332.6050159321521</v>
       </c>
       <c r="N24" t="n">
-        <v>656.2039794168712</v>
+        <v>162.7178998230142</v>
       </c>
       <c r="O24" t="n">
         <v>536.588769228707</v>
       </c>
       <c r="P24" t="n">
-        <v>82.86604868599207</v>
+        <v>414.0673280715267</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.230914083233927</v>
+        <v>224.711293328517</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8287181645903559</v>
+        <v>176.6891979435471</v>
       </c>
       <c r="K26" t="n">
         <v>388.3230155977171</v>
       </c>
       <c r="L26" t="n">
-        <v>534.2430570250887</v>
+        <v>123.8018333254509</v>
       </c>
       <c r="M26" t="n">
-        <v>609.8142919490887</v>
+        <v>142.3202171165428</v>
       </c>
       <c r="N26" t="n">
         <v>604.0078106004329</v>
       </c>
       <c r="O26" t="n">
-        <v>377.1565816305394</v>
+        <v>523.7531535991235</v>
       </c>
       <c r="P26" t="n">
-        <v>75.02863035012916</v>
+        <v>409.6992868484711</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.900520252247276</v>
+        <v>229.7081105385481</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>35.14981014942594</v>
       </c>
       <c r="K27" t="n">
         <v>321.1827279871153</v>
@@ -36685,13 +36685,13 @@
         <v>629.0311125798717</v>
       </c>
       <c r="N27" t="n">
-        <v>529.0689893579748</v>
+        <v>162.7178998230142</v>
       </c>
       <c r="O27" t="n">
         <v>536.588769228707</v>
       </c>
       <c r="P27" t="n">
-        <v>82.86604868599207</v>
+        <v>414.0673280715267</v>
       </c>
       <c r="Q27" t="n">
         <v>6.230914083233927</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8287181645903559</v>
+        <v>176.6891979435471</v>
       </c>
       <c r="K29" t="n">
-        <v>51.21178652370574</v>
+        <v>388.3230155977171</v>
       </c>
       <c r="L29" t="n">
         <v>534.2430570250887</v>
       </c>
       <c r="M29" t="n">
-        <v>609.8142919490887</v>
+        <v>142.3202171165428</v>
       </c>
       <c r="N29" t="n">
-        <v>604.0078106004329</v>
+        <v>193.5665869007952</v>
       </c>
       <c r="O29" t="n">
         <v>523.7531535991235</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5432874555568</v>
+        <v>409.6992868484711</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.900520252247276</v>
+        <v>229.7081105385481</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.13888149403351</v>
+        <v>321.1827279871153</v>
       </c>
       <c r="L30" t="n">
-        <v>310.0416406955896</v>
+        <v>107.6601045313413</v>
       </c>
       <c r="M30" t="n">
         <v>629.0311125798717</v>
       </c>
       <c r="N30" t="n">
-        <v>656.2039794168712</v>
+        <v>365.0612898427547</v>
       </c>
       <c r="O30" t="n">
         <v>536.588769228707</v>
@@ -36931,7 +36931,7 @@
         <v>414.0673280715267</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.230914083233927</v>
+        <v>224.711293328517</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8287181645903559</v>
+        <v>176.6891979435471</v>
       </c>
       <c r="K32" t="n">
-        <v>341.4234502632598</v>
+        <v>388.3230155977171</v>
       </c>
       <c r="L32" t="n">
-        <v>99.87539389262025</v>
+        <v>534.2430570250887</v>
       </c>
       <c r="M32" t="n">
-        <v>609.8142919490887</v>
+        <v>407.5273850916695</v>
       </c>
       <c r="N32" t="n">
-        <v>604.0078106004329</v>
+        <v>149.1670092119694</v>
       </c>
       <c r="O32" t="n">
         <v>523.7531535991235</v>
@@ -37156,7 +37156,7 @@
         <v>493.3340636469388</v>
       </c>
       <c r="M33" t="n">
-        <v>445.7386896285225</v>
+        <v>629.0311125798717</v>
       </c>
       <c r="N33" t="n">
         <v>656.2039794168712</v>
@@ -37165,7 +37165,7 @@
         <v>536.588769228707</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0673280715267</v>
+        <v>230.7749051201771</v>
       </c>
       <c r="Q33" t="n">
         <v>6.230914083233927</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8287181645903559</v>
+        <v>176.6891979435471</v>
       </c>
       <c r="K35" t="n">
-        <v>51.21178652370574</v>
+        <v>388.3230155977171</v>
       </c>
       <c r="L35" t="n">
-        <v>415.7183765487866</v>
+        <v>99.87539389262025</v>
       </c>
       <c r="M35" t="n">
         <v>142.3202171165428</v>
@@ -37320,10 +37320,10 @@
         <v>149.1670092119694</v>
       </c>
       <c r="O35" t="n">
-        <v>247.423299159753</v>
+        <v>127.7209650858683</v>
       </c>
       <c r="P35" t="n">
-        <v>409.6992868484711</v>
+        <v>332.2728947255538</v>
       </c>
       <c r="Q35" t="n">
         <v>229.7081105385481</v>
@@ -37387,13 +37387,13 @@
         <v>113.0955275518625</v>
       </c>
       <c r="K36" t="n">
-        <v>46.13888149403351</v>
+        <v>321.1827279871153</v>
       </c>
       <c r="L36" t="n">
-        <v>415.7183765487866</v>
+        <v>357.1126031348344</v>
       </c>
       <c r="M36" t="n">
-        <v>361.1359193590014</v>
+        <v>144.6978462798718</v>
       </c>
       <c r="N36" t="n">
         <v>162.7178998230142</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8287181645903559</v>
+        <v>176.6891979435471</v>
       </c>
       <c r="K38" t="n">
-        <v>51.21178652370574</v>
+        <v>310.8966234748011</v>
       </c>
       <c r="L38" t="n">
-        <v>315.5425883212783</v>
+        <v>99.87539389262025</v>
       </c>
       <c r="M38" t="n">
         <v>142.3202171165428</v>
       </c>
       <c r="N38" t="n">
-        <v>415.7183765487869</v>
+        <v>149.1670092119694</v>
       </c>
       <c r="O38" t="n">
-        <v>415.7183765487869</v>
+        <v>127.7209650858683</v>
       </c>
       <c r="P38" t="n">
-        <v>75.02863035012916</v>
+        <v>409.6992868484711</v>
       </c>
       <c r="Q38" t="n">
         <v>229.7081105385481</v>
@@ -37633,16 +37633,16 @@
         <v>144.6978462798718</v>
       </c>
       <c r="N39" t="n">
-        <v>412.1703984265084</v>
+        <v>162.7178998230142</v>
       </c>
       <c r="O39" t="n">
-        <v>126.9719571809083</v>
+        <v>157.9440765391195</v>
       </c>
       <c r="P39" t="n">
         <v>414.0673280715267</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.230914083233927</v>
+        <v>224.711293328517</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>176.6891979435471</v>
+        <v>0.8287181645903559</v>
       </c>
       <c r="K41" t="n">
         <v>388.3230155977171</v>
       </c>
       <c r="L41" t="n">
-        <v>289.9298370914285</v>
+        <v>99.87539389262025</v>
       </c>
       <c r="M41" t="n">
         <v>142.3202171165428</v>
       </c>
       <c r="N41" t="n">
-        <v>149.1670092119694</v>
+        <v>180.4112756913922</v>
       </c>
       <c r="O41" t="n">
         <v>415.7183765487869</v>
       </c>
       <c r="P41" t="n">
-        <v>75.02863035012916</v>
+        <v>409.6992868484711</v>
       </c>
       <c r="Q41" t="n">
         <v>8.900520252247276</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>113.0955275518625</v>
       </c>
       <c r="K42" t="n">
         <v>321.1827279871153</v>
       </c>
       <c r="L42" t="n">
-        <v>415.7183765487869</v>
+        <v>216.8330265493143</v>
       </c>
       <c r="M42" t="n">
         <v>144.6978462798718</v>
       </c>
       <c r="N42" t="n">
-        <v>162.7178998230142</v>
+        <v>415.7183765487869</v>
       </c>
       <c r="O42" t="n">
-        <v>294.1826114590711</v>
+        <v>126.9719571809083</v>
       </c>
       <c r="P42" t="n">
         <v>82.86604868599207</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>176.6891979435471</v>
+        <v>0.8287181645903559</v>
       </c>
       <c r="K44" t="n">
-        <v>388.3230155977171</v>
+        <v>51.21178652370574</v>
       </c>
       <c r="L44" t="n">
-        <v>99.87539389262025</v>
+        <v>415.7183765487869</v>
       </c>
       <c r="M44" t="n">
-        <v>142.3202171165428</v>
+        <v>262.952019175335</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1670092119694</v>
+        <v>415.7183765487869</v>
       </c>
       <c r="O44" t="n">
-        <v>271.102163249253</v>
+        <v>415.7183765487869</v>
       </c>
       <c r="P44" t="n">
-        <v>409.6992868484711</v>
+        <v>75.02863035012916</v>
       </c>
       <c r="Q44" t="n">
         <v>8.900520252247276</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>113.0955275518625</v>
       </c>
       <c r="K45" t="n">
         <v>321.1827279871153</v>
       </c>
       <c r="L45" t="n">
+        <v>107.6601045313413</v>
+      </c>
+      <c r="M45" t="n">
         <v>415.7183765487869</v>
-      </c>
-      <c r="M45" t="n">
-        <v>144.6978462798718</v>
       </c>
       <c r="N45" t="n">
         <v>162.7178998230142</v>
       </c>
       <c r="O45" t="n">
-        <v>181.4617113188197</v>
+        <v>218.1248256557389</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0673280715267</v>
+        <v>82.86604868599207</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.230914083233927</v>
+        <v>224.711293328517</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
